--- a/analises/analise-backtracking.xlsx
+++ b/analises/analise-backtracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA09A30-EA91-4DF5-872D-5C5BF83D67C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA23139-9972-42E6-B8AD-02B9CC47477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
   </bookViews>
   <sheets>
     <sheet name="medias" sheetId="3" r:id="rId1"/>
@@ -847,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,6 +890,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2455,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0068642-4925-4B83-A248-1C240DE153F1}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2740,6 +2741,7 @@
         <f>AVERAGEIFS(exec!$F:$F,exec!$A:$A,medias!$A23,exec!$C:$C,medias!$B23)</f>
         <v>11.7</v>
       </c>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
@@ -10076,7 +10078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDF14B-7DC0-4341-9177-FF46472DF89A}">
   <dimension ref="A1:J7734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/analises/analise-backtracking.xlsx
+++ b/analises/analise-backtracking.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA23139-9972-42E6-B8AD-02B9CC47477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B23F34-38F2-43BE-8FE7-FE5D42D17893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
   </bookViews>
   <sheets>
     <sheet name="medias" sheetId="3" r:id="rId1"/>
     <sheet name="exec" sheetId="1" r:id="rId2"/>
-    <sheet name="hist" sheetId="2" r:id="rId3"/>
+    <sheet name="tabela" sheetId="4" r:id="rId3"/>
+    <sheet name="hist" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hist!$A$1:$C$7734</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hist!$A$1:$C$7734</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8869" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8872" uniqueCount="240">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -753,12 +754,24 @@
   <si>
     <t>hist-220</t>
   </si>
+  <si>
+    <t>Tempo médio</t>
+  </si>
+  <si>
+    <t>Exec</t>
+  </si>
+  <si>
+    <t>Quantidade lances</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +810,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -843,11 +864,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,10 +913,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,7 +963,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2138,7 +2182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2456,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0068642-4925-4B83-A248-1C240DE153F1}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:D23"/>
     </sheetView>
   </sheetViews>
@@ -2796,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D3D01-8D35-45FA-AB2C-61E9B06F1F4F}">
-  <dimension ref="A1:J281"/>
+  <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2817,7 +2861,7 @@
     <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2848,8 +2892,11 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -2880,8 +2927,11 @@
       <c r="J2" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -2912,8 +2962,11 @@
       <c r="J3" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -2944,8 +2997,11 @@
       <c r="J4" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -2976,8 +3032,11 @@
       <c r="J5" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -3008,8 +3067,11 @@
       <c r="J6" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3040,8 +3102,11 @@
       <c r="J7" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -3072,8 +3137,11 @@
       <c r="J8" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3104,8 +3172,11 @@
       <c r="J9" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -3136,8 +3207,11 @@
       <c r="J10" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3168,8 +3242,11 @@
       <c r="J11" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -3200,8 +3277,11 @@
       <c r="J12" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3232,8 +3312,11 @@
       <c r="J13" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -3264,8 +3347,11 @@
       <c r="J14" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -3296,8 +3382,11 @@
       <c r="J15" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -3328,8 +3417,11 @@
       <c r="J16" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -3360,8 +3452,11 @@
       <c r="J17" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -3392,8 +3487,11 @@
       <c r="J18" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -3424,8 +3522,11 @@
       <c r="J19" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -3456,8 +3557,11 @@
       <c r="J20" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -3488,8 +3592,11 @@
       <c r="J21" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -3520,8 +3627,11 @@
       <c r="J22" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
@@ -3552,8 +3662,11 @@
       <c r="J23" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
@@ -3584,8 +3697,11 @@
       <c r="J24" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
@@ -3616,8 +3732,11 @@
       <c r="J25" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -3648,8 +3767,11 @@
       <c r="J26" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -3680,8 +3802,11 @@
       <c r="J27" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="L27" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
@@ -3712,8 +3837,11 @@
       <c r="J28" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="L28" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
@@ -3744,8 +3872,11 @@
       <c r="J29" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
@@ -3776,8 +3907,11 @@
       <c r="J30" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
@@ -3808,8 +3942,11 @@
       <c r="J31" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="L31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
@@ -3840,8 +3977,11 @@
       <c r="J32" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
@@ -3872,8 +4012,11 @@
       <c r="J33" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="L33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
@@ -3904,8 +4047,11 @@
       <c r="J34" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="L34" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
         <v>10</v>
       </c>
@@ -3936,8 +4082,11 @@
       <c r="J35" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="L35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
@@ -3968,8 +4117,11 @@
       <c r="J36" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="L36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="9" t="s">
         <v>10</v>
       </c>
@@ -4000,8 +4152,11 @@
       <c r="J37" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="L37" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
         <v>10</v>
       </c>
@@ -4032,8 +4187,11 @@
       <c r="J38" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="L38" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -4064,8 +4222,11 @@
       <c r="J39" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="L39" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="9" t="s">
         <v>10</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="J40" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="L40" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="9" t="s">
         <v>10</v>
       </c>
@@ -4128,8 +4292,11 @@
       <c r="J41" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="L41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="9" t="s">
         <v>10</v>
       </c>
@@ -4160,8 +4327,11 @@
       <c r="J42" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
         <v>10</v>
       </c>
@@ -4192,8 +4362,11 @@
       <c r="J43" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="L43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="9" t="s">
         <v>10</v>
       </c>
@@ -4224,8 +4397,11 @@
       <c r="J44" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="L44" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="9" t="s">
         <v>10</v>
       </c>
@@ -4256,8 +4432,11 @@
       <c r="J45" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="L45" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="9" t="s">
         <v>10</v>
       </c>
@@ -4288,8 +4467,11 @@
       <c r="J46" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="L46" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
         <v>10</v>
       </c>
@@ -4320,8 +4502,11 @@
       <c r="J47" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="L47" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="9" t="s">
         <v>10</v>
       </c>
@@ -4352,8 +4537,11 @@
       <c r="J48" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="L48" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="9" t="s">
         <v>10</v>
       </c>
@@ -4384,8 +4572,11 @@
       <c r="J49" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="L49" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="9" t="s">
         <v>10</v>
       </c>
@@ -4416,8 +4607,11 @@
       <c r="J50" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="L50" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="9" t="s">
         <v>10</v>
       </c>
@@ -4448,8 +4642,11 @@
       <c r="J51" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="L51" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
         <v>10</v>
       </c>
@@ -4480,8 +4677,11 @@
       <c r="J52" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="L52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="9" t="s">
         <v>10</v>
       </c>
@@ -4512,8 +4712,11 @@
       <c r="J53" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="L53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="9" t="s">
         <v>10</v>
       </c>
@@ -4544,8 +4747,11 @@
       <c r="J54" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="L54" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="9" t="s">
         <v>10</v>
       </c>
@@ -4576,8 +4782,11 @@
       <c r="J55" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="L55" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="9" t="s">
         <v>10</v>
       </c>
@@ -4608,8 +4817,11 @@
       <c r="J56" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="L56" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="9" t="s">
         <v>10</v>
       </c>
@@ -4640,8 +4852,11 @@
       <c r="J57" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="L57" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="9" t="s">
         <v>10</v>
       </c>
@@ -4672,8 +4887,11 @@
       <c r="J58" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="L58" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="9" t="s">
         <v>10</v>
       </c>
@@ -4704,8 +4922,11 @@
       <c r="J59" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="L59" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="9" t="s">
         <v>10</v>
       </c>
@@ -4736,8 +4957,11 @@
       <c r="J60" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="L60" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="9" t="s">
         <v>10</v>
       </c>
@@ -4768,8 +4992,11 @@
       <c r="J61" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="L61" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="9" t="s">
         <v>10</v>
       </c>
@@ -4800,8 +5027,11 @@
       <c r="J62" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="L62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="9" t="s">
         <v>10</v>
       </c>
@@ -4832,8 +5062,11 @@
       <c r="J63" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="L63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
@@ -4864,8 +5097,11 @@
       <c r="J64" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="L64" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="9" t="s">
         <v>10</v>
       </c>
@@ -4896,8 +5132,11 @@
       <c r="J65" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="9" t="s">
         <v>10</v>
       </c>
@@ -4928,8 +5167,11 @@
       <c r="J66" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="L66" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
@@ -4960,8 +5202,11 @@
       <c r="J67" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="L67" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="9" t="s">
         <v>10</v>
       </c>
@@ -4992,8 +5237,11 @@
       <c r="J68" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="L68" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
         <v>10</v>
       </c>
@@ -5024,8 +5272,11 @@
       <c r="J69" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="L69" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="9" t="s">
         <v>10</v>
       </c>
@@ -5056,8 +5307,11 @@
       <c r="J70" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="L70" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
@@ -5088,8 +5342,11 @@
       <c r="J71" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="L71" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
         <v>10</v>
       </c>
@@ -5120,8 +5377,11 @@
       <c r="J72" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="L72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="9" t="s">
         <v>10</v>
       </c>
@@ -5152,8 +5412,11 @@
       <c r="J73" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="9" t="s">
         <v>10</v>
       </c>
@@ -5184,8 +5447,11 @@
       <c r="J74" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="L74" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="9" t="s">
         <v>10</v>
       </c>
@@ -5216,8 +5482,11 @@
       <c r="J75" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="L75" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
@@ -5248,8 +5517,11 @@
       <c r="J76" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="L76" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="9" t="s">
         <v>10</v>
       </c>
@@ -5280,8 +5552,11 @@
       <c r="J77" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="L77" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="9" t="s">
         <v>10</v>
       </c>
@@ -5312,8 +5587,11 @@
       <c r="J78" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="L78" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="9" t="s">
         <v>10</v>
       </c>
@@ -5344,8 +5622,11 @@
       <c r="J79" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="L79" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="9" t="s">
         <v>10</v>
       </c>
@@ -5376,8 +5657,11 @@
       <c r="J80" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="L80" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="9" t="s">
         <v>10</v>
       </c>
@@ -5408,8 +5692,11 @@
       <c r="J81" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="L81" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
         <v>10</v>
       </c>
@@ -5440,8 +5727,11 @@
       <c r="J82" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="L82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="9" t="s">
         <v>10</v>
       </c>
@@ -5472,8 +5762,11 @@
       <c r="J83" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="L83" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="9" t="s">
         <v>10</v>
       </c>
@@ -5504,8 +5797,11 @@
       <c r="J84" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="L84" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="9" t="s">
         <v>10</v>
       </c>
@@ -5536,8 +5832,11 @@
       <c r="J85" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="L85" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="9" t="s">
         <v>10</v>
       </c>
@@ -5568,8 +5867,11 @@
       <c r="J86" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="L86" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="9" t="s">
         <v>10</v>
       </c>
@@ -5600,8 +5902,11 @@
       <c r="J87" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="L87" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="9" t="s">
         <v>10</v>
       </c>
@@ -5632,8 +5937,11 @@
       <c r="J88" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="L88" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="9" t="s">
         <v>10</v>
       </c>
@@ -5664,8 +5972,11 @@
       <c r="J89" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="L89" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="9" t="s">
         <v>10</v>
       </c>
@@ -5696,8 +6007,11 @@
       <c r="J90" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="L90" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="9" t="s">
         <v>10</v>
       </c>
@@ -5728,8 +6042,11 @@
       <c r="J91" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="L91" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="9" t="s">
         <v>10</v>
       </c>
@@ -5760,8 +6077,11 @@
       <c r="J92" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="L92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="9" t="s">
         <v>10</v>
       </c>
@@ -5792,8 +6112,11 @@
       <c r="J93" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="L93" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="9" t="s">
         <v>10</v>
       </c>
@@ -5824,8 +6147,11 @@
       <c r="J94" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="L94" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="9" t="s">
         <v>10</v>
       </c>
@@ -5856,8 +6182,11 @@
       <c r="J95" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="L95" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="9" t="s">
         <v>10</v>
       </c>
@@ -5888,8 +6217,11 @@
       <c r="J96" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="L96" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="9" t="s">
         <v>10</v>
       </c>
@@ -5920,8 +6252,11 @@
       <c r="J97" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="L97" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="9" t="s">
         <v>10</v>
       </c>
@@ -5952,8 +6287,11 @@
       <c r="J98" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="L98" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="9" t="s">
         <v>10</v>
       </c>
@@ -5984,8 +6322,11 @@
       <c r="J99" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="L99" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="9" t="s">
         <v>10</v>
       </c>
@@ -6016,8 +6357,11 @@
       <c r="J100" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="L100" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="9" t="s">
         <v>10</v>
       </c>
@@ -6048,8 +6392,11 @@
       <c r="J101" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="L101" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="9" t="s">
         <v>10</v>
       </c>
@@ -6080,8 +6427,11 @@
       <c r="J102" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="L102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="9" t="s">
         <v>10</v>
       </c>
@@ -6112,8 +6462,11 @@
       <c r="J103" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="L103" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="9" t="s">
         <v>10</v>
       </c>
@@ -6144,8 +6497,11 @@
       <c r="J104" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="L104" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="9" t="s">
         <v>10</v>
       </c>
@@ -6176,8 +6532,11 @@
       <c r="J105" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="L105" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="9" t="s">
         <v>10</v>
       </c>
@@ -6208,8 +6567,11 @@
       <c r="J106" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="L106" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="9" t="s">
         <v>10</v>
       </c>
@@ -6240,8 +6602,11 @@
       <c r="J107" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="L107" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="9" t="s">
         <v>10</v>
       </c>
@@ -6272,8 +6637,11 @@
       <c r="J108" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="L108" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="9" t="s">
         <v>10</v>
       </c>
@@ -6304,8 +6672,11 @@
       <c r="J109" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="L109" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="9" t="s">
         <v>10</v>
       </c>
@@ -6336,8 +6707,11 @@
       <c r="J110" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="L110" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="9" t="s">
         <v>10</v>
       </c>
@@ -6368,8 +6742,11 @@
       <c r="J111" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="L111" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="9" t="s">
         <v>10</v>
       </c>
@@ -6400,8 +6777,11 @@
       <c r="J112" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="L112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="9" t="s">
         <v>10</v>
       </c>
@@ -6432,8 +6812,11 @@
       <c r="J113" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="L113" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="9" t="s">
         <v>10</v>
       </c>
@@ -6464,8 +6847,11 @@
       <c r="J114" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="L114" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="9" t="s">
         <v>10</v>
       </c>
@@ -6496,8 +6882,11 @@
       <c r="J115" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="L115" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="9" t="s">
         <v>10</v>
       </c>
@@ -6528,8 +6917,11 @@
       <c r="J116" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="L116" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="9" t="s">
         <v>10</v>
       </c>
@@ -6560,8 +6952,11 @@
       <c r="J117" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="L117" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="9" t="s">
         <v>10</v>
       </c>
@@ -6592,8 +6987,11 @@
       <c r="J118" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="L118" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="9" t="s">
         <v>10</v>
       </c>
@@ -6624,8 +7022,11 @@
       <c r="J119" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="L119" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="9" t="s">
         <v>10</v>
       </c>
@@ -6656,8 +7057,11 @@
       <c r="J120" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="L120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="9" t="s">
         <v>10</v>
       </c>
@@ -6688,8 +7092,11 @@
       <c r="J121" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="L121" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="9" t="s">
         <v>10</v>
       </c>
@@ -6720,8 +7127,11 @@
       <c r="J122" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="L122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="9" t="s">
         <v>10</v>
       </c>
@@ -6752,8 +7162,11 @@
       <c r="J123" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="L123" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="9" t="s">
         <v>10</v>
       </c>
@@ -6784,8 +7197,11 @@
       <c r="J124" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="L124" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="9" t="s">
         <v>10</v>
       </c>
@@ -6816,8 +7232,11 @@
       <c r="J125" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="L125" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="9" t="s">
         <v>10</v>
       </c>
@@ -6848,8 +7267,11 @@
       <c r="J126" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="L126" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="9" t="s">
         <v>10</v>
       </c>
@@ -6880,8 +7302,11 @@
       <c r="J127" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="L127" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="9" t="s">
         <v>10</v>
       </c>
@@ -6912,8 +7337,11 @@
       <c r="J128" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="L128" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="9" t="s">
         <v>10</v>
       </c>
@@ -6944,8 +7372,11 @@
       <c r="J129" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="L129" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="9" t="s">
         <v>10</v>
       </c>
@@ -6976,8 +7407,11 @@
       <c r="J130" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="L130" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="9" t="s">
         <v>10</v>
       </c>
@@ -7008,8 +7442,11 @@
       <c r="J131" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="L131" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="9" t="s">
         <v>10</v>
       </c>
@@ -7040,8 +7477,11 @@
       <c r="J132" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="L132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="9" t="s">
         <v>10</v>
       </c>
@@ -7072,8 +7512,11 @@
       <c r="J133" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="L133" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="9" t="s">
         <v>10</v>
       </c>
@@ -7104,8 +7547,11 @@
       <c r="J134" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="L134" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="9" t="s">
         <v>10</v>
       </c>
@@ -7136,8 +7582,11 @@
       <c r="J135" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="L135" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="9" t="s">
         <v>10</v>
       </c>
@@ -7168,8 +7617,11 @@
       <c r="J136" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="L136" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="9" t="s">
         <v>10</v>
       </c>
@@ -7200,8 +7652,11 @@
       <c r="J137" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="L137" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="9" t="s">
         <v>10</v>
       </c>
@@ -7232,8 +7687,11 @@
       <c r="J138" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="L138" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="9" t="s">
         <v>10</v>
       </c>
@@ -7264,8 +7722,11 @@
       <c r="J139" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="L139" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="9" t="s">
         <v>10</v>
       </c>
@@ -7296,8 +7757,11 @@
       <c r="J140" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="L140" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="9" t="s">
         <v>10</v>
       </c>
@@ -7328,8 +7792,11 @@
       <c r="J141" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="L141" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="9" t="s">
         <v>10</v>
       </c>
@@ -7360,8 +7827,11 @@
       <c r="J142" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="L142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="9" t="s">
         <v>10</v>
       </c>
@@ -7392,8 +7862,11 @@
       <c r="J143" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="L143" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="9" t="s">
         <v>10</v>
       </c>
@@ -7424,8 +7897,11 @@
       <c r="J144" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="L144" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="9" t="s">
         <v>10</v>
       </c>
@@ -7456,8 +7932,11 @@
       <c r="J145" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="L145" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="9" t="s">
         <v>10</v>
       </c>
@@ -7488,8 +7967,11 @@
       <c r="J146" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="L146" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="9" t="s">
         <v>10</v>
       </c>
@@ -7520,8 +8002,11 @@
       <c r="J147" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="L147" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="9" t="s">
         <v>10</v>
       </c>
@@ -7552,8 +8037,11 @@
       <c r="J148" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="L148" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="9" t="s">
         <v>10</v>
       </c>
@@ -7584,8 +8072,11 @@
       <c r="J149" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="L149" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="9" t="s">
         <v>10</v>
       </c>
@@ -7616,8 +8107,11 @@
       <c r="J150" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="L150" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="9" t="s">
         <v>10</v>
       </c>
@@ -7648,8 +8142,11 @@
       <c r="J151" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="L151" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="9" t="s">
         <v>10</v>
       </c>
@@ -7680,8 +8177,11 @@
       <c r="J152" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="L152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="9" t="s">
         <v>10</v>
       </c>
@@ -7712,8 +8212,11 @@
       <c r="J153" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="L153" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="9" t="s">
         <v>10</v>
       </c>
@@ -7744,8 +8247,11 @@
       <c r="J154" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="L154" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="9" t="s">
         <v>10</v>
       </c>
@@ -7776,8 +8282,11 @@
       <c r="J155" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="L155" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="9" t="s">
         <v>10</v>
       </c>
@@ -7808,8 +8317,11 @@
       <c r="J156" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="L156" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="9" t="s">
         <v>10</v>
       </c>
@@ -7840,8 +8352,11 @@
       <c r="J157" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="L157" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="9" t="s">
         <v>10</v>
       </c>
@@ -7872,8 +8387,11 @@
       <c r="J158" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="L158" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="9" t="s">
         <v>10</v>
       </c>
@@ -7904,8 +8422,11 @@
       <c r="J159" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="L159" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="9" t="s">
         <v>10</v>
       </c>
@@ -7936,8 +8457,11 @@
       <c r="J160" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="L160" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="9" t="s">
         <v>10</v>
       </c>
@@ -7968,8 +8492,11 @@
       <c r="J161" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="L161" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="9" t="s">
         <v>10</v>
       </c>
@@ -8000,8 +8527,11 @@
       <c r="J162" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="L162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="9" t="s">
         <v>10</v>
       </c>
@@ -8032,8 +8562,11 @@
       <c r="J163" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="L163" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="9" t="s">
         <v>10</v>
       </c>
@@ -8064,8 +8597,11 @@
       <c r="J164" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="L164" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="9" t="s">
         <v>10</v>
       </c>
@@ -8096,8 +8632,11 @@
       <c r="J165" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="L165" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="9" t="s">
         <v>10</v>
       </c>
@@ -8128,8 +8667,11 @@
       <c r="J166" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="L166" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="9" t="s">
         <v>10</v>
       </c>
@@ -8160,8 +8702,11 @@
       <c r="J167" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="L167" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="9" t="s">
         <v>10</v>
       </c>
@@ -8192,8 +8737,11 @@
       <c r="J168" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="L168" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="9" t="s">
         <v>10</v>
       </c>
@@ -8224,8 +8772,11 @@
       <c r="J169" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="L169" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="9" t="s">
         <v>10</v>
       </c>
@@ -8256,8 +8807,11 @@
       <c r="J170" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="L170" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="9" t="s">
         <v>10</v>
       </c>
@@ -8288,8 +8842,11 @@
       <c r="J171" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="L171" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="9" t="s">
         <v>10</v>
       </c>
@@ -8320,8 +8877,11 @@
       <c r="J172" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="L172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="9" t="s">
         <v>10</v>
       </c>
@@ -8352,8 +8912,11 @@
       <c r="J173" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="L173" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="9" t="s">
         <v>10</v>
       </c>
@@ -8384,8 +8947,11 @@
       <c r="J174" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="L174" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="9" t="s">
         <v>10</v>
       </c>
@@ -8416,8 +8982,11 @@
       <c r="J175" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="L175" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="9" t="s">
         <v>10</v>
       </c>
@@ -8448,8 +9017,11 @@
       <c r="J176" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="L176" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="9" t="s">
         <v>10</v>
       </c>
@@ -8480,8 +9052,11 @@
       <c r="J177" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="L177" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="9" t="s">
         <v>10</v>
       </c>
@@ -8512,8 +9087,11 @@
       <c r="J178" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="L178" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="9" t="s">
         <v>10</v>
       </c>
@@ -8544,8 +9122,11 @@
       <c r="J179" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="L179" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="9" t="s">
         <v>10</v>
       </c>
@@ -8576,8 +9157,11 @@
       <c r="J180" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="L180" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="9" t="s">
         <v>10</v>
       </c>
@@ -8608,8 +9192,11 @@
       <c r="J181" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="L181" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="9" t="s">
         <v>10</v>
       </c>
@@ -8640,8 +9227,11 @@
       <c r="J182" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="L182" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="9" t="s">
         <v>10</v>
       </c>
@@ -8672,8 +9262,11 @@
       <c r="J183" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="L183" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="9" t="s">
         <v>10</v>
       </c>
@@ -8704,8 +9297,11 @@
       <c r="J184" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="L184" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="9" t="s">
         <v>10</v>
       </c>
@@ -8736,8 +9332,11 @@
       <c r="J185" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="L185" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="9" t="s">
         <v>10</v>
       </c>
@@ -8768,8 +9367,11 @@
       <c r="J186" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="L186" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="9" t="s">
         <v>10</v>
       </c>
@@ -8800,8 +9402,11 @@
       <c r="J187" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="L187" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="9" t="s">
         <v>10</v>
       </c>
@@ -8832,8 +9437,11 @@
       <c r="J188" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="L188" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="9" t="s">
         <v>10</v>
       </c>
@@ -8864,8 +9472,11 @@
       <c r="J189" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="L189" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="9" t="s">
         <v>10</v>
       </c>
@@ -8896,8 +9507,11 @@
       <c r="J190" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="L190" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="9" t="s">
         <v>10</v>
       </c>
@@ -8928,8 +9542,11 @@
       <c r="J191" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="L191" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="9" t="s">
         <v>10</v>
       </c>
@@ -8960,8 +9577,11 @@
       <c r="J192" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="L192" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="9" t="s">
         <v>10</v>
       </c>
@@ -8992,8 +9612,11 @@
       <c r="J193" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="L193" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="9" t="s">
         <v>10</v>
       </c>
@@ -9024,8 +9647,11 @@
       <c r="J194" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="L194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="9" t="s">
         <v>10</v>
       </c>
@@ -9056,8 +9682,11 @@
       <c r="J195" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="L195" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="9" t="s">
         <v>10</v>
       </c>
@@ -9088,8 +9717,11 @@
       <c r="J196" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="L196" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="9" t="s">
         <v>10</v>
       </c>
@@ -9120,8 +9752,11 @@
       <c r="J197" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="L197" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="9" t="s">
         <v>10</v>
       </c>
@@ -9152,8 +9787,11 @@
       <c r="J198" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="L198" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="9" t="s">
         <v>10</v>
       </c>
@@ -9184,8 +9822,11 @@
       <c r="J199" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="L199" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="9" t="s">
         <v>10</v>
       </c>
@@ -9216,8 +9857,11 @@
       <c r="J200" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="L200" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="9" t="s">
         <v>10</v>
       </c>
@@ -9248,8 +9892,11 @@
       <c r="J201" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="L201" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="9" t="s">
         <v>10</v>
       </c>
@@ -9280,8 +9927,11 @@
       <c r="J202" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="L202" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="9" t="s">
         <v>10</v>
       </c>
@@ -9312,8 +9962,11 @@
       <c r="J203" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="L203" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="9" t="s">
         <v>10</v>
       </c>
@@ -9344,8 +9997,11 @@
       <c r="J204" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="L204" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="9" t="s">
         <v>10</v>
       </c>
@@ -9376,8 +10032,11 @@
       <c r="J205" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="L205" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="9" t="s">
         <v>10</v>
       </c>
@@ -9408,8 +10067,11 @@
       <c r="J206" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="L206" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="9" t="s">
         <v>10</v>
       </c>
@@ -9440,8 +10102,11 @@
       <c r="J207" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="L207" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="9" t="s">
         <v>10</v>
       </c>
@@ -9472,8 +10137,11 @@
       <c r="J208" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="L208" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="9" t="s">
         <v>10</v>
       </c>
@@ -9504,8 +10172,11 @@
       <c r="J209" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="L209" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="9" t="s">
         <v>10</v>
       </c>
@@ -9536,8 +10207,11 @@
       <c r="J210" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="L210" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="9" t="s">
         <v>10</v>
       </c>
@@ -9568,8 +10242,11 @@
       <c r="J211" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="L211" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="9" t="s">
         <v>10</v>
       </c>
@@ -9600,8 +10277,11 @@
       <c r="J212" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="L212" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="9" t="s">
         <v>10</v>
       </c>
@@ -9632,8 +10312,11 @@
       <c r="J213" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="L213" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="9" t="s">
         <v>10</v>
       </c>
@@ -9664,8 +10347,11 @@
       <c r="J214" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="L214" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="9" t="s">
         <v>10</v>
       </c>
@@ -9696,8 +10382,11 @@
       <c r="J215" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="L215" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="9" t="s">
         <v>10</v>
       </c>
@@ -9728,8 +10417,11 @@
       <c r="J216" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="L216" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="9" t="s">
         <v>10</v>
       </c>
@@ -9760,8 +10452,11 @@
       <c r="J217" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="L217" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="9" t="s">
         <v>10</v>
       </c>
@@ -9792,8 +10487,11 @@
       <c r="J218" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="L218" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="9" t="s">
         <v>10</v>
       </c>
@@ -9824,8 +10522,11 @@
       <c r="J219" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="L219" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="9" t="s">
         <v>10</v>
       </c>
@@ -9856,8 +10557,11 @@
       <c r="J220" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="L220" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="9" t="s">
         <v>10</v>
       </c>
@@ -9888,14 +10592,17 @@
       <c r="J221" s="9">
         <v>259</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="L221" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="B222" s="8"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:12">
       <c r="B223" s="8"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:12">
       <c r="B224" s="8"/>
     </row>
     <row r="225" spans="2:2">
@@ -10075,6 +10782,1461 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8B2C1-76F9-4A22-BD1B-85D28A0AA152}">
+  <dimension ref="B3:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
+    <col min="3" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" ht="15" customHeight="1">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="2:20" ht="45">
+      <c r="B4" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20">
+        <v>5</v>
+      </c>
+      <c r="H4" s="20">
+        <v>6</v>
+      </c>
+      <c r="I4" s="20">
+        <v>7</v>
+      </c>
+      <c r="J4" s="20">
+        <v>8</v>
+      </c>
+      <c r="K4" s="20">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20">
+        <v>10</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f>AVERAGE(C5:L5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="18">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6:M32" si="0">AVERAGE(C6:L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="18">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="18">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="18">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="18">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="18">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="18">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="18">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="18">
+        <v>19</v>
+      </c>
+      <c r="C14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="18">
+        <v>20</v>
+      </c>
+      <c r="C15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!K$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="18">
+        <v>21</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="18">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!K$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="18">
+        <v>23</v>
+      </c>
+      <c r="C18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!F$4)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="18">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!J$4)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!K$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!L$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="18">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!F$4)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="18">
+        <v>26</v>
+      </c>
+      <c r="C21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!D$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!F$4)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!G$4)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!J$4)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="18">
+        <v>27</v>
+      </c>
+      <c r="C22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!D$4)</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!F$4)</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!G$4)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!H$4)</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!J$4)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!K$4)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!L$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="18">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!C$4)</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!D$4)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!E$4)</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!F$4)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!G$4)</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!H$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!I$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!L$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="18">
+        <v>29</v>
+      </c>
+      <c r="C24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!D$4)</f>
+        <v>12</v>
+      </c>
+      <c r="E24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!E$4)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!F$4)</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!G$4)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!I$4)</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!J$4)</f>
+        <v>4</v>
+      </c>
+      <c r="K24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!K$4)</f>
+        <v>13</v>
+      </c>
+      <c r="L24" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!L$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="21">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="18">
+        <v>30</v>
+      </c>
+      <c r="C25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!C$4)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!D$4)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!E$4)</f>
+        <v>9</v>
+      </c>
+      <c r="F25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!F$4)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!G$4)</f>
+        <v>11</v>
+      </c>
+      <c r="H25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!H$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!I$4)</f>
+        <v>6</v>
+      </c>
+      <c r="J25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!J$4)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!K$4)</f>
+        <v>3</v>
+      </c>
+      <c r="L25" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!L$4)</f>
+        <v>14</v>
+      </c>
+      <c r="M25" s="21">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="18">
+        <v>31</v>
+      </c>
+      <c r="C26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!C$4)</f>
+        <v>62</v>
+      </c>
+      <c r="D26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!D$4)</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!E$4)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!F$4)</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!G$4)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!H$4)</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!I$4)</f>
+        <v>10</v>
+      </c>
+      <c r="J26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!J$4)</f>
+        <v>8</v>
+      </c>
+      <c r="K26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!K$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!L$4)</f>
+        <v>4</v>
+      </c>
+      <c r="M26" s="21">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="18">
+        <v>32</v>
+      </c>
+      <c r="C27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="18">
+        <v>33</v>
+      </c>
+      <c r="C28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="18">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="18">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="18">
+        <v>36</v>
+      </c>
+      <c r="C31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="18">
+        <v>37</v>
+      </c>
+      <c r="C32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
+        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDF14B-7DC0-4341-9177-FF46472DF89A}">
   <dimension ref="A1:J7734"/>
   <sheetViews>

--- a/analises/analise-backtracking.xlsx
+++ b/analises/analise-backtracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B23F34-38F2-43BE-8FE7-FE5D42D17893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017B8FC-42EC-4B36-B60B-CC6CA2994635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8872" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8874" uniqueCount="241">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -763,13 +763,17 @@
   <si>
     <t>Quantidade lances</t>
   </si>
+  <si>
+    <t>Melhor lucro médio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -869,7 +873,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,9 +926,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,6 +934,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2842,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D3D01-8D35-45FA-AB2C-61E9B06F1F4F}">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
@@ -10783,74 +10793,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8B2C1-76F9-4A22-BD1B-85D28A0AA152}">
-  <dimension ref="B3:T32"/>
+  <dimension ref="B3:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
-    <col min="3" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="18" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="2:20" ht="45">
-      <c r="B4" s="22" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:20" ht="30">
+      <c r="B4" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>4</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>6</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>7</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>8</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>9</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>10</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10898,7 +10902,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B5,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <f>AVERAGE(C5:L5)</f>
         <v>0</v>
       </c>
@@ -10947,7 +10951,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B6,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <f t="shared" ref="M6:M32" si="0">AVERAGE(C6:L6)</f>
         <v>0</v>
       </c>
@@ -10996,7 +11000,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B7,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11045,7 +11049,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B8,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11094,7 +11098,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B9,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11143,7 +11147,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B10,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11192,7 +11196,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B11,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11241,11 +11245,11 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B12,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="18">
@@ -11291,7 +11295,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B13,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -11340,7 +11344,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B14,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11389,7 +11393,7 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B15,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -11438,12 +11442,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B16,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:23">
       <c r="B17" s="18">
         <v>22</v>
       </c>
@@ -11487,12 +11491,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B17,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:23">
       <c r="B18" s="18">
         <v>23</v>
       </c>
@@ -11536,12 +11540,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B18,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:23">
       <c r="B19" s="18">
         <v>24</v>
       </c>
@@ -11585,12 +11589,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B19,exec!$L:$L,tabela!L$4)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:23">
       <c r="B20" s="18">
         <v>25</v>
       </c>
@@ -11634,12 +11638,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B20,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="20">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:23">
       <c r="B21" s="18">
         <v>26</v>
       </c>
@@ -11683,12 +11687,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B21,exec!$L:$L,tabela!L$4)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:23">
       <c r="B22" s="18">
         <v>27</v>
       </c>
@@ -11732,12 +11736,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B22,exec!$L:$L,tabela!L$4)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="20">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:23">
       <c r="B23" s="18">
         <v>28</v>
       </c>
@@ -11781,12 +11785,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B23,exec!$L:$L,tabela!L$4)</f>
         <v>2</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="20">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:23">
       <c r="B24" s="18">
         <v>29</v>
       </c>
@@ -11830,12 +11834,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B24,exec!$L:$L,tabela!L$4)</f>
         <v>3</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="20">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:23">
       <c r="B25" s="18">
         <v>30</v>
       </c>
@@ -11879,12 +11883,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B25,exec!$L:$L,tabela!L$4)</f>
         <v>14</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:23">
       <c r="B26" s="18">
         <v>31</v>
       </c>
@@ -11928,12 +11932,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B26,exec!$L:$L,tabela!L$4)</f>
         <v>4</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="20">
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:23">
       <c r="B27" s="18">
         <v>32</v>
       </c>
@@ -11977,12 +11981,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:23">
       <c r="B28" s="18">
         <v>33</v>
       </c>
@@ -12026,12 +12030,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:23">
       <c r="B29" s="18">
         <v>34</v>
       </c>
@@ -12075,12 +12079,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:23">
       <c r="B30" s="18">
         <v>35</v>
       </c>
@@ -12124,12 +12128,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:23">
       <c r="B31" s="18">
         <v>36</v>
       </c>
@@ -12173,12 +12177,12 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:23">
       <c r="B32" s="18">
         <v>37</v>
       </c>
@@ -12222,8 +12226,1419 @@
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="20">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="22"/>
+    </row>
+    <row r="34" spans="2:13" ht="45">
+      <c r="B34" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <v>2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>4</v>
+      </c>
+      <c r="G34" s="19">
+        <v>5</v>
+      </c>
+      <c r="H34" s="19">
+        <v>6</v>
+      </c>
+      <c r="I34" s="19">
+        <v>7</v>
+      </c>
+      <c r="J34" s="19">
+        <v>8</v>
+      </c>
+      <c r="K34" s="19">
+        <v>9</v>
+      </c>
+      <c r="L34" s="19">
+        <v>10</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="18">
+        <v>10</v>
+      </c>
+      <c r="C35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!C$4)</f>
+        <v>504</v>
+      </c>
+      <c r="D35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!D$4)</f>
+        <v>393</v>
+      </c>
+      <c r="E35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!E$4)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!F$4)</f>
+        <v>580</v>
+      </c>
+      <c r="G35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!G$4)</f>
+        <v>248</v>
+      </c>
+      <c r="H35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!H$4)</f>
+        <v>341</v>
+      </c>
+      <c r="I35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!I$4)</f>
+        <v>372</v>
+      </c>
+      <c r="J35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!J$4)</f>
+        <v>449</v>
+      </c>
+      <c r="K35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!K$4)</f>
+        <v>531</v>
+      </c>
+      <c r="L35" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!L$4)</f>
+        <v>467</v>
+      </c>
+      <c r="M35" s="25">
+        <f>AVERAGE(C35:L35)</f>
+        <v>429.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="18">
+        <v>11</v>
+      </c>
+      <c r="C36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!C$4)</f>
+        <v>361</v>
+      </c>
+      <c r="D36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!D$4)</f>
+        <v>388</v>
+      </c>
+      <c r="E36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!E$4)</f>
+        <v>548</v>
+      </c>
+      <c r="F36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!F$4)</f>
+        <v>613</v>
+      </c>
+      <c r="G36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!G$4)</f>
+        <v>561</v>
+      </c>
+      <c r="H36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!H$4)</f>
+        <v>627</v>
+      </c>
+      <c r="I36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!I$4)</f>
+        <v>424</v>
+      </c>
+      <c r="J36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!J$4)</f>
+        <v>648</v>
+      </c>
+      <c r="K36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!K$4)</f>
+        <v>597</v>
+      </c>
+      <c r="L36" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!L$4)</f>
+        <v>442</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" ref="M36:M62" si="1">AVERAGE(C36:L36)</f>
+        <v>520.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="18">
+        <v>12</v>
+      </c>
+      <c r="C37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!C$4)</f>
+        <v>574</v>
+      </c>
+      <c r="D37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!D$4)</f>
+        <v>459</v>
+      </c>
+      <c r="E37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!E$4)</f>
+        <v>618</v>
+      </c>
+      <c r="F37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!F$4)</f>
+        <v>465</v>
+      </c>
+      <c r="G37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!G$4)</f>
+        <v>511</v>
+      </c>
+      <c r="H37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!H$4)</f>
+        <v>368</v>
+      </c>
+      <c r="I37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!I$4)</f>
+        <v>334</v>
+      </c>
+      <c r="J37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!J$4)</f>
+        <v>376</v>
+      </c>
+      <c r="K37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!K$4)</f>
+        <v>650</v>
+      </c>
+      <c r="L37" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!L$4)</f>
+        <v>651</v>
+      </c>
+      <c r="M37" s="25">
+        <f t="shared" si="1"/>
+        <v>500.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="18">
+        <v>13</v>
+      </c>
+      <c r="C38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!C$4)</f>
+        <v>514</v>
+      </c>
+      <c r="D38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!D$4)</f>
+        <v>653</v>
+      </c>
+      <c r="E38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!E$4)</f>
+        <v>428</v>
+      </c>
+      <c r="F38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!F$4)</f>
+        <v>459</v>
+      </c>
+      <c r="G38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!G$4)</f>
+        <v>672</v>
+      </c>
+      <c r="H38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!H$4)</f>
+        <v>602</v>
+      </c>
+      <c r="I38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!I$4)</f>
+        <v>610</v>
+      </c>
+      <c r="J38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!J$4)</f>
+        <v>537</v>
+      </c>
+      <c r="K38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!K$4)</f>
+        <v>555</v>
+      </c>
+      <c r="L38" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!L$4)</f>
+        <v>626</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" si="1"/>
+        <v>565.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="18">
+        <v>14</v>
+      </c>
+      <c r="C39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!C$4)</f>
+        <v>573</v>
+      </c>
+      <c r="D39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!D$4)</f>
+        <v>687</v>
+      </c>
+      <c r="E39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!E$4)</f>
+        <v>822</v>
+      </c>
+      <c r="F39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!F$4)</f>
+        <v>641</v>
+      </c>
+      <c r="G39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!G$4)</f>
+        <v>454</v>
+      </c>
+      <c r="H39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!H$4)</f>
+        <v>555</v>
+      </c>
+      <c r="I39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!I$4)</f>
+        <v>673</v>
+      </c>
+      <c r="J39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!J$4)</f>
+        <v>420</v>
+      </c>
+      <c r="K39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!K$4)</f>
+        <v>551</v>
+      </c>
+      <c r="L39" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!L$4)</f>
+        <v>528</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" si="1"/>
+        <v>590.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="18">
+        <v>15</v>
+      </c>
+      <c r="C40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!C$4)</f>
+        <v>765</v>
+      </c>
+      <c r="D40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!D$4)</f>
+        <v>536</v>
+      </c>
+      <c r="E40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!E$4)</f>
+        <v>499</v>
+      </c>
+      <c r="F40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!F$4)</f>
+        <v>654</v>
+      </c>
+      <c r="G40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!G$4)</f>
+        <v>578</v>
+      </c>
+      <c r="H40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!H$4)</f>
+        <v>465</v>
+      </c>
+      <c r="I40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!I$4)</f>
+        <v>571</v>
+      </c>
+      <c r="J40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!J$4)</f>
+        <v>628</v>
+      </c>
+      <c r="K40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!K$4)</f>
+        <v>577</v>
+      </c>
+      <c r="L40" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!L$4)</f>
+        <v>563</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" si="1"/>
+        <v>583.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="18">
+        <v>16</v>
+      </c>
+      <c r="C41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!C$4)</f>
+        <v>697</v>
+      </c>
+      <c r="D41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!D$4)</f>
+        <v>777</v>
+      </c>
+      <c r="E41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!E$4)</f>
+        <v>573</v>
+      </c>
+      <c r="F41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!F$4)</f>
+        <v>614</v>
+      </c>
+      <c r="G41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!G$4)</f>
+        <v>569</v>
+      </c>
+      <c r="H41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!H$4)</f>
+        <v>671</v>
+      </c>
+      <c r="I41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!I$4)</f>
+        <v>618</v>
+      </c>
+      <c r="J41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!J$4)</f>
+        <v>696</v>
+      </c>
+      <c r="K41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!K$4)</f>
+        <v>794</v>
+      </c>
+      <c r="L41" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!L$4)</f>
+        <v>659</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="1"/>
+        <v>666.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="18">
+        <v>17</v>
+      </c>
+      <c r="C42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!C$4)</f>
+        <v>792</v>
+      </c>
+      <c r="D42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!D$4)</f>
+        <v>813</v>
+      </c>
+      <c r="E42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!E$4)</f>
+        <v>658</v>
+      </c>
+      <c r="F42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!F$4)</f>
+        <v>646</v>
+      </c>
+      <c r="G42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!G$4)</f>
+        <v>812</v>
+      </c>
+      <c r="H42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!H$4)</f>
+        <v>501</v>
+      </c>
+      <c r="I42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!I$4)</f>
+        <v>769</v>
+      </c>
+      <c r="J42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!J$4)</f>
+        <v>755</v>
+      </c>
+      <c r="K42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!K$4)</f>
+        <v>625</v>
+      </c>
+      <c r="L42" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!L$4)</f>
+        <v>795</v>
+      </c>
+      <c r="M42" s="25">
+        <f t="shared" si="1"/>
+        <v>716.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="18">
+        <v>18</v>
+      </c>
+      <c r="C43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!C$4)</f>
+        <v>568</v>
+      </c>
+      <c r="D43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!D$4)</f>
+        <v>607</v>
+      </c>
+      <c r="E43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!E$4)</f>
+        <v>827</v>
+      </c>
+      <c r="F43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!F$4)</f>
+        <v>511</v>
+      </c>
+      <c r="G43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!G$4)</f>
+        <v>589</v>
+      </c>
+      <c r="H43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!H$4)</f>
+        <v>810</v>
+      </c>
+      <c r="I43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!I$4)</f>
+        <v>724</v>
+      </c>
+      <c r="J43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!J$4)</f>
+        <v>451</v>
+      </c>
+      <c r="K43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!K$4)</f>
+        <v>714</v>
+      </c>
+      <c r="L43" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!L$4)</f>
+        <v>522</v>
+      </c>
+      <c r="M43" s="25">
+        <f t="shared" si="1"/>
+        <v>632.29999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="18">
+        <v>19</v>
+      </c>
+      <c r="C44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!C$4)</f>
+        <v>750</v>
+      </c>
+      <c r="D44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!D$4)</f>
+        <v>561</v>
+      </c>
+      <c r="E44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!E$4)</f>
+        <v>829</v>
+      </c>
+      <c r="F44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!F$4)</f>
+        <v>595</v>
+      </c>
+      <c r="G44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!G$4)</f>
+        <v>789</v>
+      </c>
+      <c r="H44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!H$4)</f>
+        <v>544</v>
+      </c>
+      <c r="I44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!I$4)</f>
+        <v>645</v>
+      </c>
+      <c r="J44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!J$4)</f>
+        <v>756</v>
+      </c>
+      <c r="K44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!K$4)</f>
+        <v>864</v>
+      </c>
+      <c r="L44" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!L$4)</f>
+        <v>680</v>
+      </c>
+      <c r="M44" s="25">
+        <f t="shared" si="1"/>
+        <v>701.3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="18">
+        <v>20</v>
+      </c>
+      <c r="C45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!C$4)</f>
+        <v>612</v>
+      </c>
+      <c r="D45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!D$4)</f>
+        <v>556</v>
+      </c>
+      <c r="E45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!E$4)</f>
+        <v>804</v>
+      </c>
+      <c r="F45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!F$4)</f>
+        <v>707</v>
+      </c>
+      <c r="G45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!G$4)</f>
+        <v>646</v>
+      </c>
+      <c r="H45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!H$4)</f>
+        <v>830</v>
+      </c>
+      <c r="I45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!I$4)</f>
+        <v>1005</v>
+      </c>
+      <c r="J45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!J$4)</f>
+        <v>618</v>
+      </c>
+      <c r="K45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!K$4)</f>
+        <v>690</v>
+      </c>
+      <c r="L45" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!L$4)</f>
+        <v>755</v>
+      </c>
+      <c r="M45" s="25">
+        <f t="shared" si="1"/>
+        <v>722.3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="18">
+        <v>21</v>
+      </c>
+      <c r="C46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!C$4)</f>
+        <v>663</v>
+      </c>
+      <c r="D46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!D$4)</f>
+        <v>660</v>
+      </c>
+      <c r="E46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!E$4)</f>
+        <v>659</v>
+      </c>
+      <c r="F46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!F$4)</f>
+        <v>871</v>
+      </c>
+      <c r="G46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!G$4)</f>
+        <v>473</v>
+      </c>
+      <c r="H46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!H$4)</f>
+        <v>661</v>
+      </c>
+      <c r="I46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!I$4)</f>
+        <v>734</v>
+      </c>
+      <c r="J46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!J$4)</f>
+        <v>956</v>
+      </c>
+      <c r="K46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!K$4)</f>
+        <v>651</v>
+      </c>
+      <c r="L46" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!L$4)</f>
+        <v>752</v>
+      </c>
+      <c r="M46" s="25">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="18">
+        <v>22</v>
+      </c>
+      <c r="C47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!C$4)</f>
+        <v>599</v>
+      </c>
+      <c r="D47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!D$4)</f>
+        <v>860</v>
+      </c>
+      <c r="E47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!E$4)</f>
+        <v>534</v>
+      </c>
+      <c r="F47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!F$4)</f>
+        <v>817</v>
+      </c>
+      <c r="G47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!G$4)</f>
+        <v>802</v>
+      </c>
+      <c r="H47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!H$4)</f>
+        <v>772</v>
+      </c>
+      <c r="I47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!I$4)</f>
+        <v>769</v>
+      </c>
+      <c r="J47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!J$4)</f>
+        <v>1097</v>
+      </c>
+      <c r="K47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!K$4)</f>
+        <v>832</v>
+      </c>
+      <c r="L47" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!L$4)</f>
+        <v>763</v>
+      </c>
+      <c r="M47" s="25">
+        <f t="shared" si="1"/>
+        <v>784.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="18">
+        <v>23</v>
+      </c>
+      <c r="C48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!C$4)</f>
+        <v>549</v>
+      </c>
+      <c r="D48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!D$4)</f>
+        <v>953</v>
+      </c>
+      <c r="E48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!E$4)</f>
+        <v>968</v>
+      </c>
+      <c r="F48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!F$4)</f>
+        <v>813</v>
+      </c>
+      <c r="G48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!G$4)</f>
+        <v>737</v>
+      </c>
+      <c r="H48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!H$4)</f>
+        <v>696</v>
+      </c>
+      <c r="I48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!I$4)</f>
+        <v>878</v>
+      </c>
+      <c r="J48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!J$4)</f>
+        <v>789</v>
+      </c>
+      <c r="K48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!K$4)</f>
+        <v>833</v>
+      </c>
+      <c r="L48" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!L$4)</f>
+        <v>1039</v>
+      </c>
+      <c r="M48" s="25">
+        <f t="shared" si="1"/>
+        <v>825.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="18">
+        <v>24</v>
+      </c>
+      <c r="C49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!C$4)</f>
+        <v>886</v>
+      </c>
+      <c r="D49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!D$4)</f>
+        <v>855</v>
+      </c>
+      <c r="E49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!E$4)</f>
+        <v>625</v>
+      </c>
+      <c r="F49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!F$4)</f>
+        <v>999</v>
+      </c>
+      <c r="G49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!G$4)</f>
+        <v>663</v>
+      </c>
+      <c r="H49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!H$4)</f>
+        <v>657</v>
+      </c>
+      <c r="I49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!I$4)</f>
+        <v>633</v>
+      </c>
+      <c r="J49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!J$4)</f>
+        <v>877</v>
+      </c>
+      <c r="K49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!K$4)</f>
+        <v>955</v>
+      </c>
+      <c r="L49" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!L$4)</f>
+        <v>886</v>
+      </c>
+      <c r="M49" s="25">
+        <f t="shared" si="1"/>
+        <v>803.6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="18">
+        <v>25</v>
+      </c>
+      <c r="C50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!C$4)</f>
+        <v>773</v>
+      </c>
+      <c r="D50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!D$4)</f>
+        <v>1078</v>
+      </c>
+      <c r="E50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!E$4)</f>
+        <v>746</v>
+      </c>
+      <c r="F50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!F$4)</f>
+        <v>701</v>
+      </c>
+      <c r="G50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!G$4)</f>
+        <v>902</v>
+      </c>
+      <c r="H50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!H$4)</f>
+        <v>709</v>
+      </c>
+      <c r="I50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!I$4)</f>
+        <v>1137</v>
+      </c>
+      <c r="J50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!J$4)</f>
+        <v>484</v>
+      </c>
+      <c r="K50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!K$4)</f>
+        <v>677</v>
+      </c>
+      <c r="L50" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!L$4)</f>
+        <v>882</v>
+      </c>
+      <c r="M50" s="25">
+        <f t="shared" si="1"/>
+        <v>808.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="18">
+        <v>26</v>
+      </c>
+      <c r="C51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!C$4)</f>
+        <v>893</v>
+      </c>
+      <c r="D51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!D$4)</f>
+        <v>768</v>
+      </c>
+      <c r="E51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!E$4)</f>
+        <v>984</v>
+      </c>
+      <c r="F51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!F$4)</f>
+        <v>943</v>
+      </c>
+      <c r="G51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!G$4)</f>
+        <v>867</v>
+      </c>
+      <c r="H51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!H$4)</f>
+        <v>720</v>
+      </c>
+      <c r="I51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!I$4)</f>
+        <v>923</v>
+      </c>
+      <c r="J51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!J$4)</f>
+        <v>815</v>
+      </c>
+      <c r="K51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!K$4)</f>
+        <v>776</v>
+      </c>
+      <c r="L51" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!L$4)</f>
+        <v>897</v>
+      </c>
+      <c r="M51" s="25">
+        <f t="shared" si="1"/>
+        <v>858.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="18">
+        <v>27</v>
+      </c>
+      <c r="C52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!C$4)</f>
+        <v>950</v>
+      </c>
+      <c r="D52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!D$4)</f>
+        <v>1133</v>
+      </c>
+      <c r="E52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!E$4)</f>
+        <v>693</v>
+      </c>
+      <c r="F52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!F$4)</f>
+        <v>650</v>
+      </c>
+      <c r="G52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!G$4)</f>
+        <v>885</v>
+      </c>
+      <c r="H52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!H$4)</f>
+        <v>1036</v>
+      </c>
+      <c r="I52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!I$4)</f>
+        <v>718</v>
+      </c>
+      <c r="J52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!J$4)</f>
+        <v>853</v>
+      </c>
+      <c r="K52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!K$4)</f>
+        <v>840</v>
+      </c>
+      <c r="L52" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!L$4)</f>
+        <v>806</v>
+      </c>
+      <c r="M52" s="25">
+        <f t="shared" si="1"/>
+        <v>856.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="18">
+        <v>28</v>
+      </c>
+      <c r="C53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!C$4)</f>
+        <v>953</v>
+      </c>
+      <c r="D53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!D$4)</f>
+        <v>984</v>
+      </c>
+      <c r="E53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!E$4)</f>
+        <v>1041</v>
+      </c>
+      <c r="F53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!F$4)</f>
+        <v>904</v>
+      </c>
+      <c r="G53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!G$4)</f>
+        <v>984</v>
+      </c>
+      <c r="H53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!H$4)</f>
+        <v>990</v>
+      </c>
+      <c r="I53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!I$4)</f>
+        <v>984</v>
+      </c>
+      <c r="J53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!J$4)</f>
+        <v>699</v>
+      </c>
+      <c r="K53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!K$4)</f>
+        <v>765</v>
+      </c>
+      <c r="L53" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!L$4)</f>
+        <v>990</v>
+      </c>
+      <c r="M53" s="25">
+        <f t="shared" si="1"/>
+        <v>929.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="18">
+        <v>29</v>
+      </c>
+      <c r="C54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!C$4)</f>
+        <v>803</v>
+      </c>
+      <c r="D54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!D$4)</f>
+        <v>1003</v>
+      </c>
+      <c r="E54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!E$4)</f>
+        <v>916</v>
+      </c>
+      <c r="F54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!F$4)</f>
+        <v>800</v>
+      </c>
+      <c r="G54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!G$4)</f>
+        <v>1112</v>
+      </c>
+      <c r="H54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!H$4)</f>
+        <v>852</v>
+      </c>
+      <c r="I54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!I$4)</f>
+        <v>972</v>
+      </c>
+      <c r="J54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!J$4)</f>
+        <v>1067</v>
+      </c>
+      <c r="K54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!K$4)</f>
+        <v>1049</v>
+      </c>
+      <c r="L54" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!L$4)</f>
+        <v>821</v>
+      </c>
+      <c r="M54" s="25">
+        <f t="shared" si="1"/>
+        <v>939.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="18">
+        <v>30</v>
+      </c>
+      <c r="C55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!C$4)</f>
+        <v>775</v>
+      </c>
+      <c r="D55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!D$4)</f>
+        <v>929</v>
+      </c>
+      <c r="E55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!E$4)</f>
+        <v>1103</v>
+      </c>
+      <c r="F55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!F$4)</f>
+        <v>853</v>
+      </c>
+      <c r="G55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!G$4)</f>
+        <v>1007</v>
+      </c>
+      <c r="H55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!H$4)</f>
+        <v>754</v>
+      </c>
+      <c r="I55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!I$4)</f>
+        <v>925</v>
+      </c>
+      <c r="J55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!J$4)</f>
+        <v>745</v>
+      </c>
+      <c r="K55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!K$4)</f>
+        <v>828</v>
+      </c>
+      <c r="L55" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!L$4)</f>
+        <v>1003</v>
+      </c>
+      <c r="M55" s="25">
+        <f t="shared" si="1"/>
+        <v>892.2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="18">
+        <v>31</v>
+      </c>
+      <c r="C56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!C$4)</f>
+        <v>1053</v>
+      </c>
+      <c r="D56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!D$4)</f>
+        <v>1079</v>
+      </c>
+      <c r="E56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!E$4)</f>
+        <v>895</v>
+      </c>
+      <c r="F56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!F$4)</f>
+        <v>975</v>
+      </c>
+      <c r="G56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!G$4)</f>
+        <v>751</v>
+      </c>
+      <c r="H56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!H$4)</f>
+        <v>943</v>
+      </c>
+      <c r="I56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!I$4)</f>
+        <v>1091</v>
+      </c>
+      <c r="J56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!J$4)</f>
+        <v>876</v>
+      </c>
+      <c r="K56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!K$4)</f>
+        <v>697</v>
+      </c>
+      <c r="L56" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!L$4)</f>
+        <v>1004</v>
+      </c>
+      <c r="M56" s="25">
+        <f t="shared" si="1"/>
+        <v>936.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="18">
+        <v>32</v>
+      </c>
+      <c r="C57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="18">
+        <v>33</v>
+      </c>
+      <c r="C58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="18">
+        <v>34</v>
+      </c>
+      <c r="C59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="18">
+        <v>35</v>
+      </c>
+      <c r="C60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="18">
+        <v>36</v>
+      </c>
+      <c r="C61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="18">
+        <v>37</v>
+      </c>
+      <c r="C62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!D$4)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!E$4)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!G$4)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!H$4)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!J$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!K$4)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="24">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/analises/analise-backtracking.xlsx
+++ b/analises/analise-backtracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017B8FC-42EC-4B36-B60B-CC6CA2994635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976B87E7-9806-4DD8-B939-7FEBE2514AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8874" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8879" uniqueCount="245">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -766,6 +766,18 @@
   <si>
     <t>Melhor lucro médio</t>
   </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>Dois</t>
+  </si>
+  <si>
+    <t>Lances selecionados</t>
+  </si>
 </sst>
 </file>
 
@@ -773,7 +785,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -935,14 +947,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2852,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D3D01-8D35-45FA-AB2C-61E9B06F1F4F}">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10795,8 +10807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8B2C1-76F9-4A22-BD1B-85D28A0AA152}">
   <dimension ref="B3:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10805,20 +10817,24 @@
     <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:20" ht="30">
       <c r="B4" s="21" t="s">
@@ -10857,6 +10873,15 @@
       <c r="M4" s="21" t="s">
         <v>237</v>
       </c>
+      <c r="P4" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="18">
@@ -10906,6 +10931,12 @@
         <f>AVERAGE(C5:L5)</f>
         <v>0</v>
       </c>
+      <c r="P5" s="18">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="18">
@@ -10955,6 +10986,12 @@
         <f t="shared" ref="M6:M32" si="0">AVERAGE(C6:L6)</f>
         <v>0</v>
       </c>
+      <c r="P6" s="18">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="18">
@@ -12232,7 +12269,7 @@
       </c>
       <c r="W32" s="22"/>
     </row>
-    <row r="34" spans="2:13" ht="45">
+    <row r="34" spans="2:16" ht="45">
       <c r="B34" s="21" t="s">
         <v>239</v>
       </c>
@@ -12269,689 +12306,690 @@
       <c r="M34" s="21" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="18">
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!C$4)</f>
         <v>504</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!D$4)</f>
         <v>393</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!E$4)</f>
         <v>408</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!F$4)</f>
         <v>580</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!G$4)</f>
         <v>248</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!H$4)</f>
         <v>341</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!I$4)</f>
         <v>372</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!J$4)</f>
         <v>449</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!K$4)</f>
         <v>531</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!L$4)</f>
         <v>467</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="24">
         <f>AVERAGE(C35:L35)</f>
         <v>429.3</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:16">
       <c r="B36" s="18">
         <v>11</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!C$4)</f>
         <v>361</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!D$4)</f>
         <v>388</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!E$4)</f>
         <v>548</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!F$4)</f>
         <v>613</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!G$4)</f>
         <v>561</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!H$4)</f>
         <v>627</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!I$4)</f>
         <v>424</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!J$4)</f>
         <v>648</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!K$4)</f>
         <v>597</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!L$4)</f>
         <v>442</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="24">
         <f t="shared" ref="M36:M62" si="1">AVERAGE(C36:L36)</f>
         <v>520.9</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:16">
       <c r="B37" s="18">
         <v>12</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!C$4)</f>
         <v>574</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!D$4)</f>
         <v>459</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!E$4)</f>
         <v>618</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!F$4)</f>
         <v>465</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!G$4)</f>
         <v>511</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!H$4)</f>
         <v>368</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!I$4)</f>
         <v>334</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!J$4)</f>
         <v>376</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!K$4)</f>
         <v>650</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!L$4)</f>
         <v>651</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="24">
         <f t="shared" si="1"/>
         <v>500.6</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:16">
       <c r="B38" s="18">
         <v>13</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!C$4)</f>
         <v>514</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!D$4)</f>
         <v>653</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!E$4)</f>
         <v>428</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!F$4)</f>
         <v>459</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!G$4)</f>
         <v>672</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!H$4)</f>
         <v>602</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!I$4)</f>
         <v>610</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!J$4)</f>
         <v>537</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!K$4)</f>
         <v>555</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!L$4)</f>
         <v>626</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="24">
         <f t="shared" si="1"/>
         <v>565.6</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:16">
       <c r="B39" s="18">
         <v>14</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!C$4)</f>
         <v>573</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!D$4)</f>
         <v>687</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!E$4)</f>
         <v>822</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!F$4)</f>
         <v>641</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!G$4)</f>
         <v>454</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!H$4)</f>
         <v>555</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!I$4)</f>
         <v>673</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!J$4)</f>
         <v>420</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!K$4)</f>
         <v>551</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!L$4)</f>
         <v>528</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="24">
         <f t="shared" si="1"/>
         <v>590.4</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:16">
       <c r="B40" s="18">
         <v>15</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!C$4)</f>
         <v>765</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!D$4)</f>
         <v>536</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!E$4)</f>
         <v>499</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!F$4)</f>
         <v>654</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!G$4)</f>
         <v>578</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!H$4)</f>
         <v>465</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!I$4)</f>
         <v>571</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!J$4)</f>
         <v>628</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!K$4)</f>
         <v>577</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!L$4)</f>
         <v>563</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="24">
         <f t="shared" si="1"/>
         <v>583.6</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:16">
       <c r="B41" s="18">
         <v>16</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!C$4)</f>
         <v>697</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!D$4)</f>
         <v>777</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!E$4)</f>
         <v>573</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!F$4)</f>
         <v>614</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!G$4)</f>
         <v>569</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!H$4)</f>
         <v>671</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!I$4)</f>
         <v>618</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!J$4)</f>
         <v>696</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!K$4)</f>
         <v>794</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!L$4)</f>
         <v>659</v>
       </c>
-      <c r="M41" s="25">
+      <c r="M41" s="24">
         <f t="shared" si="1"/>
         <v>666.8</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:16">
       <c r="B42" s="18">
         <v>17</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!C$4)</f>
         <v>792</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!D$4)</f>
         <v>813</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!E$4)</f>
         <v>658</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!F$4)</f>
         <v>646</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!G$4)</f>
         <v>812</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!H$4)</f>
         <v>501</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!I$4)</f>
         <v>769</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!J$4)</f>
         <v>755</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!K$4)</f>
         <v>625</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!L$4)</f>
         <v>795</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M42" s="24">
         <f t="shared" si="1"/>
         <v>716.6</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:16">
       <c r="B43" s="18">
         <v>18</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!C$4)</f>
         <v>568</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!D$4)</f>
         <v>607</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!E$4)</f>
         <v>827</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!F$4)</f>
         <v>511</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!G$4)</f>
         <v>589</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!H$4)</f>
         <v>810</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!I$4)</f>
         <v>724</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!J$4)</f>
         <v>451</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!K$4)</f>
         <v>714</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!L$4)</f>
         <v>522</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="24">
         <f t="shared" si="1"/>
         <v>632.29999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:16">
       <c r="B44" s="18">
         <v>19</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!C$4)</f>
         <v>750</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!D$4)</f>
         <v>561</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!E$4)</f>
         <v>829</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!F$4)</f>
         <v>595</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!G$4)</f>
         <v>789</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!H$4)</f>
         <v>544</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!I$4)</f>
         <v>645</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!J$4)</f>
         <v>756</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!K$4)</f>
         <v>864</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!L$4)</f>
         <v>680</v>
       </c>
-      <c r="M44" s="25">
+      <c r="M44" s="24">
         <f t="shared" si="1"/>
         <v>701.3</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:16">
       <c r="B45" s="18">
         <v>20</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!C$4)</f>
         <v>612</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!D$4)</f>
         <v>556</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!E$4)</f>
         <v>804</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!F$4)</f>
         <v>707</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!G$4)</f>
         <v>646</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!H$4)</f>
         <v>830</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!I$4)</f>
         <v>1005</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!J$4)</f>
         <v>618</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!K$4)</f>
         <v>690</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!L$4)</f>
         <v>755</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="24">
         <f t="shared" si="1"/>
         <v>722.3</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:16">
       <c r="B46" s="18">
         <v>21</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!C$4)</f>
         <v>663</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!D$4)</f>
         <v>660</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!E$4)</f>
         <v>659</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!F$4)</f>
         <v>871</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!G$4)</f>
         <v>473</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!H$4)</f>
         <v>661</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!I$4)</f>
         <v>734</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!J$4)</f>
         <v>956</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!K$4)</f>
         <v>651</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!L$4)</f>
         <v>752</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="24">
         <f t="shared" si="1"/>
         <v>708</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:16">
       <c r="B47" s="18">
         <v>22</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!C$4)</f>
         <v>599</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!D$4)</f>
         <v>860</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!E$4)</f>
         <v>534</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!F$4)</f>
         <v>817</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!G$4)</f>
         <v>802</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!H$4)</f>
         <v>772</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!I$4)</f>
         <v>769</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!J$4)</f>
         <v>1097</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!K$4)</f>
         <v>832</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!L$4)</f>
         <v>763</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="24">
         <f t="shared" si="1"/>
         <v>784.5</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:16">
       <c r="B48" s="18">
         <v>23</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!C$4)</f>
         <v>549</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!D$4)</f>
         <v>953</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!E$4)</f>
         <v>968</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!F$4)</f>
         <v>813</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!G$4)</f>
         <v>737</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!H$4)</f>
         <v>696</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!I$4)</f>
         <v>878</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!J$4)</f>
         <v>789</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!K$4)</f>
         <v>833</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!L$4)</f>
         <v>1039</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="24">
         <f t="shared" si="1"/>
         <v>825.5</v>
       </c>
@@ -12960,47 +12998,47 @@
       <c r="B49" s="18">
         <v>24</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!C$4)</f>
         <v>886</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!D$4)</f>
         <v>855</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!E$4)</f>
         <v>625</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!F$4)</f>
         <v>999</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!G$4)</f>
         <v>663</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!H$4)</f>
         <v>657</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!I$4)</f>
         <v>633</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!J$4)</f>
         <v>877</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!K$4)</f>
         <v>955</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!L$4)</f>
         <v>886</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="24">
         <f t="shared" si="1"/>
         <v>803.6</v>
       </c>
@@ -13009,47 +13047,47 @@
       <c r="B50" s="18">
         <v>25</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!C$4)</f>
         <v>773</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!D$4)</f>
         <v>1078</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!E$4)</f>
         <v>746</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!F$4)</f>
         <v>701</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!G$4)</f>
         <v>902</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!H$4)</f>
         <v>709</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!I$4)</f>
         <v>1137</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!J$4)</f>
         <v>484</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!K$4)</f>
         <v>677</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!L$4)</f>
         <v>882</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="24">
         <f t="shared" si="1"/>
         <v>808.9</v>
       </c>
@@ -13058,47 +13096,47 @@
       <c r="B51" s="18">
         <v>26</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!C$4)</f>
         <v>893</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!D$4)</f>
         <v>768</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!E$4)</f>
         <v>984</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!F$4)</f>
         <v>943</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!G$4)</f>
         <v>867</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!H$4)</f>
         <v>720</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!I$4)</f>
         <v>923</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!J$4)</f>
         <v>815</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!K$4)</f>
         <v>776</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!L$4)</f>
         <v>897</v>
       </c>
-      <c r="M51" s="25">
+      <c r="M51" s="24">
         <f t="shared" si="1"/>
         <v>858.6</v>
       </c>
@@ -13107,47 +13145,47 @@
       <c r="B52" s="18">
         <v>27</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!C$4)</f>
         <v>950</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!D$4)</f>
         <v>1133</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!E$4)</f>
         <v>693</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!F$4)</f>
         <v>650</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!G$4)</f>
         <v>885</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!H$4)</f>
         <v>1036</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!I$4)</f>
         <v>718</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!J$4)</f>
         <v>853</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!K$4)</f>
         <v>840</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!L$4)</f>
         <v>806</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="24">
         <f t="shared" si="1"/>
         <v>856.4</v>
       </c>
@@ -13156,47 +13194,47 @@
       <c r="B53" s="18">
         <v>28</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!C$4)</f>
         <v>953</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!D$4)</f>
         <v>984</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!E$4)</f>
         <v>1041</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!F$4)</f>
         <v>904</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!G$4)</f>
         <v>984</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!H$4)</f>
         <v>990</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!I$4)</f>
         <v>984</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!J$4)</f>
         <v>699</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!K$4)</f>
         <v>765</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!L$4)</f>
         <v>990</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="24">
         <f t="shared" si="1"/>
         <v>929.4</v>
       </c>
@@ -13205,47 +13243,47 @@
       <c r="B54" s="18">
         <v>29</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!C$4)</f>
         <v>803</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!D$4)</f>
         <v>1003</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!E$4)</f>
         <v>916</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!F$4)</f>
         <v>800</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!G$4)</f>
         <v>1112</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!H$4)</f>
         <v>852</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!I$4)</f>
         <v>972</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!J$4)</f>
         <v>1067</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!K$4)</f>
         <v>1049</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!L$4)</f>
         <v>821</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M54" s="24">
         <f t="shared" si="1"/>
         <v>939.5</v>
       </c>
@@ -13254,47 +13292,47 @@
       <c r="B55" s="18">
         <v>30</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!C$4)</f>
         <v>775</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!D$4)</f>
         <v>929</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!E$4)</f>
         <v>1103</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!F$4)</f>
         <v>853</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!G$4)</f>
         <v>1007</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!H$4)</f>
         <v>754</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!I$4)</f>
         <v>925</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!J$4)</f>
         <v>745</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!K$4)</f>
         <v>828</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!L$4)</f>
         <v>1003</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="24">
         <f t="shared" si="1"/>
         <v>892.2</v>
       </c>
@@ -13303,47 +13341,47 @@
       <c r="B56" s="18">
         <v>31</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!C$4)</f>
         <v>1053</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!D$4)</f>
         <v>1079</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!E$4)</f>
         <v>895</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!F$4)</f>
         <v>975</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!G$4)</f>
         <v>751</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!H$4)</f>
         <v>943</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!I$4)</f>
         <v>1091</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!J$4)</f>
         <v>876</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!K$4)</f>
         <v>697</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!L$4)</f>
         <v>1004</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="24">
         <f t="shared" si="1"/>
         <v>936.4</v>
       </c>
@@ -13352,47 +13390,47 @@
       <c r="B57" s="18">
         <v>32</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13401,47 +13439,47 @@
       <c r="B58" s="18">
         <v>33</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M58" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13450,47 +13488,47 @@
       <c r="B59" s="18">
         <v>34</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M59" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13499,47 +13537,47 @@
       <c r="B60" s="18">
         <v>35</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="24">
+      <c r="K60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="25">
+      <c r="M60" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13548,47 +13586,47 @@
       <c r="B61" s="18">
         <v>36</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M61" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13597,47 +13635,47 @@
       <c r="B62" s="18">
         <v>37</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!C$4)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!D$4)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!E$4)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!F$4)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!G$4)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!H$4)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!I$4)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!J$4)</f>
         <v>0</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!K$4)</f>
         <v>0</v>
       </c>
-      <c r="L62" s="24">
+      <c r="L62" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!L$4)</f>
         <v>0</v>
       </c>
-      <c r="M62" s="25">
+      <c r="M62" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/analises/analise-backtracking.xlsx
+++ b/analises/analise-backtracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\02 - Repositorios\02 - Repositorios faculdade\leilaodeenergia-tp-grupo-alunossemgrupo\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD1D08F-7F27-4F93-94CC-73C82F48882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F9A5B-D891-41D5-AF0B-BEDFAFA73FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12248BD6-8FAC-4B11-9F3D-44074F5654BF}"/>
   </bookViews>
   <sheets>
     <sheet name="medias" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8901" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8900" uniqueCount="242">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -767,16 +767,7 @@
     <t>Melhor lucro médio</t>
   </si>
   <si>
-    <t>Conjunto</t>
-  </si>
-  <si>
-    <t>Um</t>
-  </si>
-  <si>
-    <t>Dois</t>
-  </si>
-  <si>
-    <t>Lances selecionados</t>
+    <t>Conjunto Caram</t>
   </si>
 </sst>
 </file>
@@ -885,7 +876,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,6 +944,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,10 +1094,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>medias!$B$2:$B$23</c:f>
+              <c:f>medias!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1172,15 +1164,21 @@
                 <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>medias!$C$2:$C$23</c:f>
+              <c:f>medias!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1246,6 +1244,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +1421,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Tempo de execu;áo (seg)</a:t>
+                  <a:t>Tempo de execução (seg)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2522,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0068642-4925-4B83-A248-1C240DE153F1}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2810,12 +2814,29 @@
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="1"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4">
+        <f>AVERAGEIFS(exec!$F:$F,exec!$A:$A,medias!$A24,exec!$C:$C,medias!$B24)</f>
+        <v>12.7</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4">
+        <f>AVERAGEIFS(exec!$F:$F,exec!$A:$A,medias!$A25,exec!$C:$C,medias!$B25)</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
@@ -2864,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D3D01-8D35-45FA-AB2C-61E9B06F1F4F}">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2911,7 +2932,7 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -2946,7 +2967,7 @@
       <c r="I2" s="9">
         <v>4261</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>260</v>
       </c>
       <c r="L2" s="7">
@@ -2981,7 +3002,7 @@
       <c r="I3" s="9">
         <v>4261</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>260</v>
       </c>
       <c r="L3" s="7">
@@ -3016,7 +3037,7 @@
       <c r="I4" s="9">
         <v>4261</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <v>260</v>
       </c>
       <c r="L4" s="7">
@@ -3051,7 +3072,7 @@
       <c r="I5" s="9">
         <v>4261</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>260</v>
       </c>
       <c r="L5" s="7">
@@ -3086,7 +3107,7 @@
       <c r="I6" s="9">
         <v>4261</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>260</v>
       </c>
       <c r="L6" s="7">
@@ -3121,7 +3142,7 @@
       <c r="I7" s="9">
         <v>4261</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>260</v>
       </c>
       <c r="L7" s="7">
@@ -3156,7 +3177,7 @@
       <c r="I8" s="9">
         <v>4261</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>260</v>
       </c>
       <c r="L8" s="7">
@@ -3191,7 +3212,7 @@
       <c r="I9" s="9">
         <v>4261</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>260</v>
       </c>
       <c r="L9" s="7">
@@ -3226,7 +3247,7 @@
       <c r="I10" s="9">
         <v>4261</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>260</v>
       </c>
       <c r="L10" s="7">
@@ -3261,7 +3282,7 @@
       <c r="I11" s="9">
         <v>4261</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>260</v>
       </c>
       <c r="L11" s="7">
@@ -3296,7 +3317,7 @@
       <c r="I12" s="9">
         <v>4261</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>260</v>
       </c>
       <c r="L12" s="7">
@@ -3331,7 +3352,7 @@
       <c r="I13" s="9">
         <v>4261</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="9">
         <v>260</v>
       </c>
       <c r="L13" s="7">
@@ -3366,7 +3387,7 @@
       <c r="I14" s="9">
         <v>4261</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>260</v>
       </c>
       <c r="L14" s="7">
@@ -3401,7 +3422,7 @@
       <c r="I15" s="9">
         <v>4261</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>260</v>
       </c>
       <c r="L15" s="7">
@@ -3436,7 +3457,7 @@
       <c r="I16" s="9">
         <v>4261</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>260</v>
       </c>
       <c r="L16" s="7">
@@ -3471,7 +3492,7 @@
       <c r="I17" s="9">
         <v>4261</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>260</v>
       </c>
       <c r="L17" s="7">
@@ -3506,7 +3527,7 @@
       <c r="I18" s="9">
         <v>4261</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <v>260</v>
       </c>
       <c r="L18" s="7">
@@ -3541,7 +3562,7 @@
       <c r="I19" s="9">
         <v>4261</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>260</v>
       </c>
       <c r="L19" s="7">
@@ -3576,7 +3597,7 @@
       <c r="I20" s="9">
         <v>4261</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>260</v>
       </c>
       <c r="L20" s="7">
@@ -3611,7 +3632,7 @@
       <c r="I21" s="9">
         <v>4261</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9">
         <v>260</v>
       </c>
       <c r="L21" s="7">
@@ -3646,7 +3667,7 @@
       <c r="I22" s="9">
         <v>4261</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>260</v>
       </c>
       <c r="L22" s="7">
@@ -3681,7 +3702,7 @@
       <c r="I23" s="9">
         <v>4261</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9">
         <v>260</v>
       </c>
       <c r="L23" s="7">
@@ -3716,7 +3737,7 @@
       <c r="I24" s="9">
         <v>4261</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="9">
         <v>260</v>
       </c>
       <c r="L24" s="7">
@@ -3751,7 +3772,7 @@
       <c r="I25" s="9">
         <v>4261</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="9">
         <v>260</v>
       </c>
       <c r="L25" s="7">
@@ -3786,7 +3807,7 @@
       <c r="I26" s="9">
         <v>4261</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <v>260</v>
       </c>
       <c r="L26" s="7">
@@ -3821,7 +3842,7 @@
       <c r="I27" s="9">
         <v>4261</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="9">
         <v>260</v>
       </c>
       <c r="L27" s="7">
@@ -3856,7 +3877,7 @@
       <c r="I28" s="9">
         <v>4261</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9">
         <v>260</v>
       </c>
       <c r="L28" s="7">
@@ -3891,7 +3912,7 @@
       <c r="I29" s="9">
         <v>4261</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="9">
         <v>260</v>
       </c>
       <c r="L29" s="7">
@@ -3926,7 +3947,7 @@
       <c r="I30" s="9">
         <v>4261</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="9">
         <v>260</v>
       </c>
       <c r="L30" s="7">
@@ -3961,7 +3982,7 @@
       <c r="I31" s="9">
         <v>4261</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="9">
         <v>260</v>
       </c>
       <c r="L31" s="7">
@@ -3996,7 +4017,7 @@
       <c r="I32" s="9">
         <v>4261</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="9">
         <v>260</v>
       </c>
       <c r="L32" s="7">
@@ -4031,7 +4052,7 @@
       <c r="I33" s="9">
         <v>4261</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="9">
         <v>260</v>
       </c>
       <c r="L33" s="7">
@@ -4066,7 +4087,7 @@
       <c r="I34" s="9">
         <v>4261</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9">
         <v>260</v>
       </c>
       <c r="L34" s="7">
@@ -4101,7 +4122,7 @@
       <c r="I35" s="9">
         <v>4261</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="9">
         <v>260</v>
       </c>
       <c r="L35" s="7">
@@ -4136,7 +4157,7 @@
       <c r="I36" s="9">
         <v>4261</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9">
         <v>260</v>
       </c>
       <c r="L36" s="7">
@@ -4171,7 +4192,7 @@
       <c r="I37" s="9">
         <v>4261</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <v>260</v>
       </c>
       <c r="L37" s="7">
@@ -4206,7 +4227,7 @@
       <c r="I38" s="9">
         <v>4261</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <v>260</v>
       </c>
       <c r="L38" s="7">
@@ -4241,7 +4262,7 @@
       <c r="I39" s="9">
         <v>4261</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="9">
         <v>260</v>
       </c>
       <c r="L39" s="7">
@@ -4276,7 +4297,7 @@
       <c r="I40" s="9">
         <v>4261</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="9">
         <v>260</v>
       </c>
       <c r="L40" s="7">
@@ -4311,7 +4332,7 @@
       <c r="I41" s="9">
         <v>4261</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="9">
         <v>260</v>
       </c>
       <c r="L41" s="7">
@@ -4346,7 +4367,7 @@
       <c r="I42" s="9">
         <v>4261</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <v>260</v>
       </c>
       <c r="L42" s="7">
@@ -4381,7 +4402,7 @@
       <c r="I43" s="9">
         <v>4261</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="9">
         <v>260</v>
       </c>
       <c r="L43" s="7">
@@ -4416,7 +4437,7 @@
       <c r="I44" s="9">
         <v>4261</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="9">
         <v>260</v>
       </c>
       <c r="L44" s="7">
@@ -4451,7 +4472,7 @@
       <c r="I45" s="9">
         <v>4261</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="9">
         <v>260</v>
       </c>
       <c r="L45" s="7">
@@ -4486,7 +4507,7 @@
       <c r="I46" s="9">
         <v>4261</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="9">
         <v>260</v>
       </c>
       <c r="L46" s="7">
@@ -4521,7 +4542,7 @@
       <c r="I47" s="9">
         <v>4261</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="9">
         <v>260</v>
       </c>
       <c r="L47" s="7">
@@ -4556,7 +4577,7 @@
       <c r="I48" s="9">
         <v>4261</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="9">
         <v>260</v>
       </c>
       <c r="L48" s="7">
@@ -4591,7 +4612,7 @@
       <c r="I49" s="9">
         <v>4261</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="9">
         <v>260</v>
       </c>
       <c r="L49" s="7">
@@ -4626,7 +4647,7 @@
       <c r="I50" s="9">
         <v>4261</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="9">
         <v>260</v>
       </c>
       <c r="L50" s="7">
@@ -4661,7 +4682,7 @@
       <c r="I51" s="9">
         <v>4261</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="9">
         <v>260</v>
       </c>
       <c r="L51" s="7">
@@ -4696,7 +4717,7 @@
       <c r="I52" s="9">
         <v>4261</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="9">
         <v>260</v>
       </c>
       <c r="L52" s="7">
@@ -4731,7 +4752,7 @@
       <c r="I53" s="9">
         <v>4261</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="9">
         <v>260</v>
       </c>
       <c r="L53" s="7">
@@ -4766,7 +4787,7 @@
       <c r="I54" s="9">
         <v>4261</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="9">
         <v>260</v>
       </c>
       <c r="L54" s="7">
@@ -4801,7 +4822,7 @@
       <c r="I55" s="9">
         <v>4261</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="9">
         <v>260</v>
       </c>
       <c r="L55" s="7">
@@ -4836,7 +4857,7 @@
       <c r="I56" s="9">
         <v>4261</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="9">
         <v>260</v>
       </c>
       <c r="L56" s="7">
@@ -4871,7 +4892,7 @@
       <c r="I57" s="9">
         <v>4261</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="9">
         <v>260</v>
       </c>
       <c r="L57" s="7">
@@ -4906,7 +4927,7 @@
       <c r="I58" s="9">
         <v>4261</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="9">
         <v>260</v>
       </c>
       <c r="L58" s="7">
@@ -4941,7 +4962,7 @@
       <c r="I59" s="9">
         <v>4261</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="9">
         <v>260</v>
       </c>
       <c r="L59" s="7">
@@ -4976,7 +4997,7 @@
       <c r="I60" s="9">
         <v>4261</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="9">
         <v>260</v>
       </c>
       <c r="L60" s="7">
@@ -5011,7 +5032,7 @@
       <c r="I61" s="9">
         <v>4261</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="9">
         <v>260</v>
       </c>
       <c r="L61" s="7">
@@ -5046,7 +5067,7 @@
       <c r="I62" s="9">
         <v>4261</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="9">
         <v>260</v>
       </c>
       <c r="L62" s="7">
@@ -5081,7 +5102,7 @@
       <c r="I63" s="9">
         <v>4261</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="9">
         <v>260</v>
       </c>
       <c r="L63" s="7">
@@ -5116,7 +5137,7 @@
       <c r="I64" s="9">
         <v>4261</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="9">
         <v>260</v>
       </c>
       <c r="L64" s="7">
@@ -5151,7 +5172,7 @@
       <c r="I65" s="9">
         <v>4261</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="9">
         <v>260</v>
       </c>
       <c r="L65" s="7">
@@ -5186,7 +5207,7 @@
       <c r="I66" s="9">
         <v>4261</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="9">
         <v>260</v>
       </c>
       <c r="L66" s="7">
@@ -5221,7 +5242,7 @@
       <c r="I67" s="9">
         <v>4261</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="9">
         <v>260</v>
       </c>
       <c r="L67" s="7">
@@ -5256,7 +5277,7 @@
       <c r="I68" s="9">
         <v>4261</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="9">
         <v>260</v>
       </c>
       <c r="L68" s="7">
@@ -5291,7 +5312,7 @@
       <c r="I69" s="9">
         <v>4261</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="9">
         <v>260</v>
       </c>
       <c r="L69" s="7">
@@ -5326,7 +5347,7 @@
       <c r="I70" s="9">
         <v>4261</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="9">
         <v>260</v>
       </c>
       <c r="L70" s="7">
@@ -5361,7 +5382,7 @@
       <c r="I71" s="9">
         <v>4261</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="9">
         <v>260</v>
       </c>
       <c r="L71" s="7">
@@ -5396,7 +5417,7 @@
       <c r="I72" s="9">
         <v>4261</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="9">
         <v>260</v>
       </c>
       <c r="L72" s="7">
@@ -5431,7 +5452,7 @@
       <c r="I73" s="9">
         <v>4261</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="9">
         <v>260</v>
       </c>
       <c r="L73" s="7">
@@ -5466,7 +5487,7 @@
       <c r="I74" s="9">
         <v>4261</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="9">
         <v>260</v>
       </c>
       <c r="L74" s="7">
@@ -5501,7 +5522,7 @@
       <c r="I75" s="9">
         <v>4261</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="9">
         <v>260</v>
       </c>
       <c r="L75" s="7">
@@ -5536,7 +5557,7 @@
       <c r="I76" s="9">
         <v>4261</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="9">
         <v>260</v>
       </c>
       <c r="L76" s="7">
@@ -5571,7 +5592,7 @@
       <c r="I77" s="9">
         <v>4261</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="9">
         <v>260</v>
       </c>
       <c r="L77" s="7">
@@ -5606,7 +5627,7 @@
       <c r="I78" s="9">
         <v>4261</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="9">
         <v>260</v>
       </c>
       <c r="L78" s="7">
@@ -5641,7 +5662,7 @@
       <c r="I79" s="9">
         <v>4261</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="9">
         <v>260</v>
       </c>
       <c r="L79" s="7">
@@ -5676,7 +5697,7 @@
       <c r="I80" s="9">
         <v>4261</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="9">
         <v>260</v>
       </c>
       <c r="L80" s="7">
@@ -5711,7 +5732,7 @@
       <c r="I81" s="9">
         <v>4261</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="9">
         <v>260</v>
       </c>
       <c r="L81" s="7">
@@ -5746,7 +5767,7 @@
       <c r="I82" s="9">
         <v>4261</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="9">
         <v>260</v>
       </c>
       <c r="L82" s="7">
@@ -5781,7 +5802,7 @@
       <c r="I83" s="9">
         <v>4261</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="9">
         <v>260</v>
       </c>
       <c r="L83" s="7">
@@ -5816,7 +5837,7 @@
       <c r="I84" s="9">
         <v>4261</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="9">
         <v>260</v>
       </c>
       <c r="L84" s="7">
@@ -5851,7 +5872,7 @@
       <c r="I85" s="9">
         <v>4261</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="9">
         <v>260</v>
       </c>
       <c r="L85" s="7">
@@ -5886,7 +5907,7 @@
       <c r="I86" s="9">
         <v>4261</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="9">
         <v>260</v>
       </c>
       <c r="L86" s="7">
@@ -5921,7 +5942,7 @@
       <c r="I87" s="9">
         <v>4261</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="9">
         <v>260</v>
       </c>
       <c r="L87" s="7">
@@ -5956,7 +5977,7 @@
       <c r="I88" s="9">
         <v>4261</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="9">
         <v>260</v>
       </c>
       <c r="L88" s="7">
@@ -5991,7 +6012,7 @@
       <c r="I89" s="9">
         <v>4261</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="9">
         <v>260</v>
       </c>
       <c r="L89" s="7">
@@ -6026,7 +6047,7 @@
       <c r="I90" s="9">
         <v>4261</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="9">
         <v>260</v>
       </c>
       <c r="L90" s="7">
@@ -6061,7 +6082,7 @@
       <c r="I91" s="9">
         <v>4261</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="9">
         <v>260</v>
       </c>
       <c r="L91" s="7">
@@ -6096,7 +6117,7 @@
       <c r="I92" s="9">
         <v>4261</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="9">
         <v>260</v>
       </c>
       <c r="L92" s="7">
@@ -6131,7 +6152,7 @@
       <c r="I93" s="9">
         <v>4261</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="9">
         <v>260</v>
       </c>
       <c r="L93" s="7">
@@ -6166,7 +6187,7 @@
       <c r="I94" s="9">
         <v>4261</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="9">
         <v>260</v>
       </c>
       <c r="L94" s="7">
@@ -6201,7 +6222,7 @@
       <c r="I95" s="9">
         <v>4261</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="9">
         <v>260</v>
       </c>
       <c r="L95" s="7">
@@ -6236,7 +6257,7 @@
       <c r="I96" s="9">
         <v>4261</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="9">
         <v>260</v>
       </c>
       <c r="L96" s="7">
@@ -6271,7 +6292,7 @@
       <c r="I97" s="9">
         <v>4261</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="9">
         <v>260</v>
       </c>
       <c r="L97" s="7">
@@ -6306,7 +6327,7 @@
       <c r="I98" s="9">
         <v>4261</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="9">
         <v>260</v>
       </c>
       <c r="L98" s="7">
@@ -6341,7 +6362,7 @@
       <c r="I99" s="9">
         <v>4261</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="9">
         <v>260</v>
       </c>
       <c r="L99" s="7">
@@ -6376,7 +6397,7 @@
       <c r="I100" s="9">
         <v>4261</v>
       </c>
-      <c r="J100" s="7">
+      <c r="J100" s="9">
         <v>260</v>
       </c>
       <c r="L100" s="7">
@@ -6411,7 +6432,7 @@
       <c r="I101" s="9">
         <v>4261</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="9">
         <v>260</v>
       </c>
       <c r="L101" s="7">
@@ -6446,7 +6467,7 @@
       <c r="I102" s="9">
         <v>4261</v>
       </c>
-      <c r="J102" s="7">
+      <c r="J102" s="9">
         <v>260</v>
       </c>
       <c r="L102" s="7">
@@ -6481,7 +6502,7 @@
       <c r="I103" s="9">
         <v>4261</v>
       </c>
-      <c r="J103" s="7">
+      <c r="J103" s="9">
         <v>260</v>
       </c>
       <c r="L103" s="7">
@@ -6516,7 +6537,7 @@
       <c r="I104" s="9">
         <v>4261</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="9">
         <v>260</v>
       </c>
       <c r="L104" s="7">
@@ -6551,7 +6572,7 @@
       <c r="I105" s="9">
         <v>4261</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105" s="9">
         <v>260</v>
       </c>
       <c r="L105" s="7">
@@ -6586,7 +6607,7 @@
       <c r="I106" s="9">
         <v>4261</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106" s="9">
         <v>260</v>
       </c>
       <c r="L106" s="7">
@@ -6621,7 +6642,7 @@
       <c r="I107" s="9">
         <v>4261</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="9">
         <v>260</v>
       </c>
       <c r="L107" s="7">
@@ -6656,7 +6677,7 @@
       <c r="I108" s="9">
         <v>4261</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108" s="9">
         <v>260</v>
       </c>
       <c r="L108" s="7">
@@ -6691,7 +6712,7 @@
       <c r="I109" s="9">
         <v>4261</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="9">
         <v>260</v>
       </c>
       <c r="L109" s="7">
@@ -6726,7 +6747,7 @@
       <c r="I110" s="9">
         <v>4261</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110" s="9">
         <v>260</v>
       </c>
       <c r="L110" s="7">
@@ -6761,7 +6782,7 @@
       <c r="I111" s="9">
         <v>4261</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="9">
         <v>260</v>
       </c>
       <c r="L111" s="7">
@@ -6796,7 +6817,7 @@
       <c r="I112" s="9">
         <v>4261</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="9">
         <v>260</v>
       </c>
       <c r="L112" s="7">
@@ -6831,7 +6852,7 @@
       <c r="I113" s="9">
         <v>4261</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113" s="9">
         <v>260</v>
       </c>
       <c r="L113" s="7">
@@ -6866,7 +6887,7 @@
       <c r="I114" s="9">
         <v>4261</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="9">
         <v>260</v>
       </c>
       <c r="L114" s="7">
@@ -6901,7 +6922,7 @@
       <c r="I115" s="9">
         <v>4261</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="9">
         <v>260</v>
       </c>
       <c r="L115" s="7">
@@ -6936,7 +6957,7 @@
       <c r="I116" s="9">
         <v>4261</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="9">
         <v>260</v>
       </c>
       <c r="L116" s="7">
@@ -6971,7 +6992,7 @@
       <c r="I117" s="9">
         <v>4261</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="9">
         <v>260</v>
       </c>
       <c r="L117" s="7">
@@ -7006,7 +7027,7 @@
       <c r="I118" s="9">
         <v>4261</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="9">
         <v>260</v>
       </c>
       <c r="L118" s="7">
@@ -7041,7 +7062,7 @@
       <c r="I119" s="9">
         <v>4261</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="9">
         <v>260</v>
       </c>
       <c r="L119" s="7">
@@ -7076,7 +7097,7 @@
       <c r="I120" s="9">
         <v>4261</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="9">
         <v>260</v>
       </c>
       <c r="L120" s="7">
@@ -7111,7 +7132,7 @@
       <c r="I121" s="9">
         <v>4261</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="9">
         <v>260</v>
       </c>
       <c r="L121" s="7">
@@ -7146,7 +7167,7 @@
       <c r="I122" s="9">
         <v>4261</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="9">
         <v>260</v>
       </c>
       <c r="L122" s="7">
@@ -7181,7 +7202,7 @@
       <c r="I123" s="9">
         <v>4261</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J123" s="9">
         <v>260</v>
       </c>
       <c r="L123" s="7">
@@ -7216,7 +7237,7 @@
       <c r="I124" s="9">
         <v>4261</v>
       </c>
-      <c r="J124" s="7">
+      <c r="J124" s="9">
         <v>260</v>
       </c>
       <c r="L124" s="7">
@@ -7251,7 +7272,7 @@
       <c r="I125" s="9">
         <v>4261</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J125" s="9">
         <v>260</v>
       </c>
       <c r="L125" s="7">
@@ -7286,7 +7307,7 @@
       <c r="I126" s="9">
         <v>4261</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="9">
         <v>260</v>
       </c>
       <c r="L126" s="7">
@@ -7321,7 +7342,7 @@
       <c r="I127" s="9">
         <v>4261</v>
       </c>
-      <c r="J127" s="7">
+      <c r="J127" s="9">
         <v>260</v>
       </c>
       <c r="L127" s="7">
@@ -7356,7 +7377,7 @@
       <c r="I128" s="9">
         <v>4261</v>
       </c>
-      <c r="J128" s="7">
+      <c r="J128" s="9">
         <v>260</v>
       </c>
       <c r="L128" s="7">
@@ -7391,7 +7412,7 @@
       <c r="I129" s="9">
         <v>4261</v>
       </c>
-      <c r="J129" s="7">
+      <c r="J129" s="9">
         <v>260</v>
       </c>
       <c r="L129" s="7">
@@ -7426,7 +7447,7 @@
       <c r="I130" s="9">
         <v>4261</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J130" s="9">
         <v>260</v>
       </c>
       <c r="L130" s="7">
@@ -7461,7 +7482,7 @@
       <c r="I131" s="9">
         <v>4261</v>
       </c>
-      <c r="J131" s="7">
+      <c r="J131" s="9">
         <v>260</v>
       </c>
       <c r="L131" s="7">
@@ -7496,7 +7517,7 @@
       <c r="I132" s="9">
         <v>4261</v>
       </c>
-      <c r="J132" s="7">
+      <c r="J132" s="9">
         <v>260</v>
       </c>
       <c r="L132" s="7">
@@ -7531,7 +7552,7 @@
       <c r="I133" s="9">
         <v>4261</v>
       </c>
-      <c r="J133" s="7">
+      <c r="J133" s="9">
         <v>260</v>
       </c>
       <c r="L133" s="7">
@@ -7566,7 +7587,7 @@
       <c r="I134" s="9">
         <v>4261</v>
       </c>
-      <c r="J134" s="7">
+      <c r="J134" s="9">
         <v>260</v>
       </c>
       <c r="L134" s="7">
@@ -7601,7 +7622,7 @@
       <c r="I135" s="9">
         <v>4261</v>
       </c>
-      <c r="J135" s="7">
+      <c r="J135" s="9">
         <v>260</v>
       </c>
       <c r="L135" s="7">
@@ -7636,7 +7657,7 @@
       <c r="I136" s="9">
         <v>4261</v>
       </c>
-      <c r="J136" s="7">
+      <c r="J136" s="9">
         <v>260</v>
       </c>
       <c r="L136" s="7">
@@ -7671,7 +7692,7 @@
       <c r="I137" s="9">
         <v>4261</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J137" s="9">
         <v>260</v>
       </c>
       <c r="L137" s="7">
@@ -7706,7 +7727,7 @@
       <c r="I138" s="9">
         <v>4261</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J138" s="9">
         <v>260</v>
       </c>
       <c r="L138" s="7">
@@ -7741,7 +7762,7 @@
       <c r="I139" s="9">
         <v>4261</v>
       </c>
-      <c r="J139" s="7">
+      <c r="J139" s="9">
         <v>260</v>
       </c>
       <c r="L139" s="7">
@@ -7776,7 +7797,7 @@
       <c r="I140" s="9">
         <v>4261</v>
       </c>
-      <c r="J140" s="7">
+      <c r="J140" s="9">
         <v>260</v>
       </c>
       <c r="L140" s="7">
@@ -7811,7 +7832,7 @@
       <c r="I141" s="9">
         <v>4261</v>
       </c>
-      <c r="J141" s="7">
+      <c r="J141" s="9">
         <v>260</v>
       </c>
       <c r="L141" s="7">
@@ -7846,7 +7867,7 @@
       <c r="I142" s="9">
         <v>4261</v>
       </c>
-      <c r="J142" s="7">
+      <c r="J142" s="9">
         <v>260</v>
       </c>
       <c r="L142" s="7">
@@ -7881,7 +7902,7 @@
       <c r="I143" s="9">
         <v>4261</v>
       </c>
-      <c r="J143" s="7">
+      <c r="J143" s="9">
         <v>260</v>
       </c>
       <c r="L143" s="7">
@@ -7916,7 +7937,7 @@
       <c r="I144" s="9">
         <v>4261</v>
       </c>
-      <c r="J144" s="7">
+      <c r="J144" s="9">
         <v>260</v>
       </c>
       <c r="L144" s="7">
@@ -7951,7 +7972,7 @@
       <c r="I145" s="9">
         <v>4261</v>
       </c>
-      <c r="J145" s="7">
+      <c r="J145" s="9">
         <v>260</v>
       </c>
       <c r="L145" s="7">
@@ -7986,7 +8007,7 @@
       <c r="I146" s="9">
         <v>4261</v>
       </c>
-      <c r="J146" s="7">
+      <c r="J146" s="9">
         <v>260</v>
       </c>
       <c r="L146" s="7">
@@ -8021,7 +8042,7 @@
       <c r="I147" s="9">
         <v>4261</v>
       </c>
-      <c r="J147" s="7">
+      <c r="J147" s="9">
         <v>260</v>
       </c>
       <c r="L147" s="7">
@@ -8056,7 +8077,7 @@
       <c r="I148" s="9">
         <v>4261</v>
       </c>
-      <c r="J148" s="7">
+      <c r="J148" s="9">
         <v>260</v>
       </c>
       <c r="L148" s="7">
@@ -8091,7 +8112,7 @@
       <c r="I149" s="9">
         <v>4261</v>
       </c>
-      <c r="J149" s="7">
+      <c r="J149" s="9">
         <v>260</v>
       </c>
       <c r="L149" s="7">
@@ -8126,7 +8147,7 @@
       <c r="I150" s="9">
         <v>4261</v>
       </c>
-      <c r="J150" s="7">
+      <c r="J150" s="9">
         <v>260</v>
       </c>
       <c r="L150" s="7">
@@ -8161,7 +8182,7 @@
       <c r="I151" s="9">
         <v>4261</v>
       </c>
-      <c r="J151" s="7">
+      <c r="J151" s="9">
         <v>260</v>
       </c>
       <c r="L151" s="7">
@@ -8196,7 +8217,7 @@
       <c r="I152" s="9">
         <v>4261</v>
       </c>
-      <c r="J152" s="7">
+      <c r="J152" s="9">
         <v>260</v>
       </c>
       <c r="L152" s="7">
@@ -8231,7 +8252,7 @@
       <c r="I153" s="9">
         <v>4261</v>
       </c>
-      <c r="J153" s="7">
+      <c r="J153" s="9">
         <v>260</v>
       </c>
       <c r="L153" s="7">
@@ -8266,7 +8287,7 @@
       <c r="I154" s="9">
         <v>4261</v>
       </c>
-      <c r="J154" s="7">
+      <c r="J154" s="9">
         <v>260</v>
       </c>
       <c r="L154" s="7">
@@ -8301,7 +8322,7 @@
       <c r="I155" s="9">
         <v>4261</v>
       </c>
-      <c r="J155" s="7">
+      <c r="J155" s="9">
         <v>260</v>
       </c>
       <c r="L155" s="7">
@@ -8336,7 +8357,7 @@
       <c r="I156" s="9">
         <v>4261</v>
       </c>
-      <c r="J156" s="7">
+      <c r="J156" s="9">
         <v>260</v>
       </c>
       <c r="L156" s="7">
@@ -8371,7 +8392,7 @@
       <c r="I157" s="9">
         <v>4261</v>
       </c>
-      <c r="J157" s="7">
+      <c r="J157" s="9">
         <v>260</v>
       </c>
       <c r="L157" s="7">
@@ -8406,7 +8427,7 @@
       <c r="I158" s="9">
         <v>4261</v>
       </c>
-      <c r="J158" s="7">
+      <c r="J158" s="9">
         <v>260</v>
       </c>
       <c r="L158" s="7">
@@ -8441,7 +8462,7 @@
       <c r="I159" s="9">
         <v>4261</v>
       </c>
-      <c r="J159" s="7">
+      <c r="J159" s="9">
         <v>260</v>
       </c>
       <c r="L159" s="7">
@@ -8476,7 +8497,7 @@
       <c r="I160" s="9">
         <v>4261</v>
       </c>
-      <c r="J160" s="7">
+      <c r="J160" s="9">
         <v>260</v>
       </c>
       <c r="L160" s="7">
@@ -8511,7 +8532,7 @@
       <c r="I161" s="9">
         <v>4261</v>
       </c>
-      <c r="J161" s="7">
+      <c r="J161" s="9">
         <v>260</v>
       </c>
       <c r="L161" s="7">
@@ -8546,7 +8567,7 @@
       <c r="I162" s="9">
         <v>4261</v>
       </c>
-      <c r="J162" s="7">
+      <c r="J162" s="9">
         <v>260</v>
       </c>
       <c r="L162" s="7">
@@ -8581,7 +8602,7 @@
       <c r="I163" s="9">
         <v>4261</v>
       </c>
-      <c r="J163" s="7">
+      <c r="J163" s="9">
         <v>260</v>
       </c>
       <c r="L163" s="7">
@@ -8616,7 +8637,7 @@
       <c r="I164" s="9">
         <v>4261</v>
       </c>
-      <c r="J164" s="7">
+      <c r="J164" s="9">
         <v>260</v>
       </c>
       <c r="L164" s="7">
@@ -8651,7 +8672,7 @@
       <c r="I165" s="9">
         <v>4261</v>
       </c>
-      <c r="J165" s="7">
+      <c r="J165" s="9">
         <v>260</v>
       </c>
       <c r="L165" s="7">
@@ -8686,7 +8707,7 @@
       <c r="I166" s="9">
         <v>4261</v>
       </c>
-      <c r="J166" s="7">
+      <c r="J166" s="9">
         <v>260</v>
       </c>
       <c r="L166" s="7">
@@ -8721,7 +8742,7 @@
       <c r="I167" s="9">
         <v>4261</v>
       </c>
-      <c r="J167" s="7">
+      <c r="J167" s="9">
         <v>260</v>
       </c>
       <c r="L167" s="7">
@@ -8756,7 +8777,7 @@
       <c r="I168" s="9">
         <v>4261</v>
       </c>
-      <c r="J168" s="7">
+      <c r="J168" s="9">
         <v>260</v>
       </c>
       <c r="L168" s="7">
@@ -8791,7 +8812,7 @@
       <c r="I169" s="9">
         <v>4261</v>
       </c>
-      <c r="J169" s="7">
+      <c r="J169" s="9">
         <v>260</v>
       </c>
       <c r="L169" s="7">
@@ -8826,7 +8847,7 @@
       <c r="I170" s="9">
         <v>4261</v>
       </c>
-      <c r="J170" s="7">
+      <c r="J170" s="9">
         <v>260</v>
       </c>
       <c r="L170" s="7">
@@ -8861,7 +8882,7 @@
       <c r="I171" s="9">
         <v>4261</v>
       </c>
-      <c r="J171" s="7">
+      <c r="J171" s="9">
         <v>260</v>
       </c>
       <c r="L171" s="7">
@@ -8896,7 +8917,7 @@
       <c r="I172" s="9">
         <v>4261</v>
       </c>
-      <c r="J172" s="7">
+      <c r="J172" s="9">
         <v>260</v>
       </c>
       <c r="L172" s="7">
@@ -8931,7 +8952,7 @@
       <c r="I173" s="9">
         <v>4261</v>
       </c>
-      <c r="J173" s="7">
+      <c r="J173" s="9">
         <v>260</v>
       </c>
       <c r="L173" s="7">
@@ -8966,7 +8987,7 @@
       <c r="I174" s="9">
         <v>4261</v>
       </c>
-      <c r="J174" s="7">
+      <c r="J174" s="9">
         <v>260</v>
       </c>
       <c r="L174" s="7">
@@ -9001,7 +9022,7 @@
       <c r="I175" s="9">
         <v>4261</v>
       </c>
-      <c r="J175" s="7">
+      <c r="J175" s="9">
         <v>260</v>
       </c>
       <c r="L175" s="7">
@@ -9036,7 +9057,7 @@
       <c r="I176" s="9">
         <v>4261</v>
       </c>
-      <c r="J176" s="7">
+      <c r="J176" s="9">
         <v>260</v>
       </c>
       <c r="L176" s="7">
@@ -9071,7 +9092,7 @@
       <c r="I177" s="9">
         <v>4261</v>
       </c>
-      <c r="J177" s="7">
+      <c r="J177" s="9">
         <v>260</v>
       </c>
       <c r="L177" s="7">
@@ -9106,7 +9127,7 @@
       <c r="I178" s="9">
         <v>4261</v>
       </c>
-      <c r="J178" s="7">
+      <c r="J178" s="9">
         <v>260</v>
       </c>
       <c r="L178" s="7">
@@ -9141,7 +9162,7 @@
       <c r="I179" s="9">
         <v>4261</v>
       </c>
-      <c r="J179" s="7">
+      <c r="J179" s="9">
         <v>260</v>
       </c>
       <c r="L179" s="7">
@@ -9176,7 +9197,7 @@
       <c r="I180" s="9">
         <v>4261</v>
       </c>
-      <c r="J180" s="7">
+      <c r="J180" s="9">
         <v>260</v>
       </c>
       <c r="L180" s="7">
@@ -9211,7 +9232,7 @@
       <c r="I181" s="9">
         <v>4261</v>
       </c>
-      <c r="J181" s="7">
+      <c r="J181" s="9">
         <v>260</v>
       </c>
       <c r="L181" s="7">
@@ -9246,7 +9267,7 @@
       <c r="I182" s="9">
         <v>4261</v>
       </c>
-      <c r="J182" s="7">
+      <c r="J182" s="9">
         <v>260</v>
       </c>
       <c r="L182" s="7">
@@ -9281,7 +9302,7 @@
       <c r="I183" s="9">
         <v>4261</v>
       </c>
-      <c r="J183" s="7">
+      <c r="J183" s="9">
         <v>260</v>
       </c>
       <c r="L183" s="7">
@@ -9316,7 +9337,7 @@
       <c r="I184" s="9">
         <v>4261</v>
       </c>
-      <c r="J184" s="7">
+      <c r="J184" s="9">
         <v>260</v>
       </c>
       <c r="L184" s="7">
@@ -9351,7 +9372,7 @@
       <c r="I185" s="9">
         <v>4261</v>
       </c>
-      <c r="J185" s="7">
+      <c r="J185" s="9">
         <v>260</v>
       </c>
       <c r="L185" s="7">
@@ -9386,7 +9407,7 @@
       <c r="I186" s="9">
         <v>4261</v>
       </c>
-      <c r="J186" s="7">
+      <c r="J186" s="9">
         <v>260</v>
       </c>
       <c r="L186" s="7">
@@ -9421,7 +9442,7 @@
       <c r="I187" s="9">
         <v>4261</v>
       </c>
-      <c r="J187" s="7">
+      <c r="J187" s="9">
         <v>260</v>
       </c>
       <c r="L187" s="7">
@@ -9456,7 +9477,7 @@
       <c r="I188" s="9">
         <v>4261</v>
       </c>
-      <c r="J188" s="7">
+      <c r="J188" s="9">
         <v>260</v>
       </c>
       <c r="L188" s="7">
@@ -9491,7 +9512,7 @@
       <c r="I189" s="9">
         <v>4261</v>
       </c>
-      <c r="J189" s="7">
+      <c r="J189" s="9">
         <v>260</v>
       </c>
       <c r="L189" s="7">
@@ -9526,7 +9547,7 @@
       <c r="I190" s="9">
         <v>4261</v>
       </c>
-      <c r="J190" s="7">
+      <c r="J190" s="9">
         <v>260</v>
       </c>
       <c r="L190" s="7">
@@ -9561,7 +9582,7 @@
       <c r="I191" s="9">
         <v>4261</v>
       </c>
-      <c r="J191" s="7">
+      <c r="J191" s="9">
         <v>260</v>
       </c>
       <c r="L191" s="7">
@@ -9596,7 +9617,7 @@
       <c r="I192" s="9">
         <v>4261</v>
       </c>
-      <c r="J192" s="7">
+      <c r="J192" s="9">
         <v>260</v>
       </c>
       <c r="L192" s="7">
@@ -9631,7 +9652,7 @@
       <c r="I193" s="9">
         <v>4261</v>
       </c>
-      <c r="J193" s="7">
+      <c r="J193" s="9">
         <v>260</v>
       </c>
       <c r="L193" s="7">
@@ -9666,7 +9687,7 @@
       <c r="I194" s="9">
         <v>4261</v>
       </c>
-      <c r="J194" s="7">
+      <c r="J194" s="9">
         <v>260</v>
       </c>
       <c r="L194" s="7">
@@ -9701,7 +9722,7 @@
       <c r="I195" s="9">
         <v>4261</v>
       </c>
-      <c r="J195" s="7">
+      <c r="J195" s="9">
         <v>260</v>
       </c>
       <c r="L195" s="7">
@@ -9736,7 +9757,7 @@
       <c r="I196" s="9">
         <v>4261</v>
       </c>
-      <c r="J196" s="7">
+      <c r="J196" s="9">
         <v>260</v>
       </c>
       <c r="L196" s="7">
@@ -9771,7 +9792,7 @@
       <c r="I197" s="9">
         <v>4261</v>
       </c>
-      <c r="J197" s="7">
+      <c r="J197" s="9">
         <v>260</v>
       </c>
       <c r="L197" s="7">
@@ -9806,7 +9827,7 @@
       <c r="I198" s="9">
         <v>4261</v>
       </c>
-      <c r="J198" s="7">
+      <c r="J198" s="9">
         <v>260</v>
       </c>
       <c r="L198" s="7">
@@ -9841,7 +9862,7 @@
       <c r="I199" s="9">
         <v>4261</v>
       </c>
-      <c r="J199" s="7">
+      <c r="J199" s="9">
         <v>260</v>
       </c>
       <c r="L199" s="7">
@@ -9876,7 +9897,7 @@
       <c r="I200" s="9">
         <v>4261</v>
       </c>
-      <c r="J200" s="7">
+      <c r="J200" s="9">
         <v>260</v>
       </c>
       <c r="L200" s="7">
@@ -9911,7 +9932,7 @@
       <c r="I201" s="9">
         <v>4261</v>
       </c>
-      <c r="J201" s="7">
+      <c r="J201" s="9">
         <v>260</v>
       </c>
       <c r="L201" s="7">
@@ -9946,7 +9967,7 @@
       <c r="I202" s="9">
         <v>4261</v>
       </c>
-      <c r="J202" s="7">
+      <c r="J202" s="9">
         <v>260</v>
       </c>
       <c r="L202" s="7">
@@ -9981,7 +10002,7 @@
       <c r="I203" s="9">
         <v>4261</v>
       </c>
-      <c r="J203" s="7">
+      <c r="J203" s="9">
         <v>260</v>
       </c>
       <c r="L203" s="7">
@@ -10016,7 +10037,7 @@
       <c r="I204" s="9">
         <v>4261</v>
       </c>
-      <c r="J204" s="7">
+      <c r="J204" s="9">
         <v>260</v>
       </c>
       <c r="L204" s="7">
@@ -10051,7 +10072,7 @@
       <c r="I205" s="9">
         <v>4261</v>
       </c>
-      <c r="J205" s="7">
+      <c r="J205" s="9">
         <v>260</v>
       </c>
       <c r="L205" s="7">
@@ -10086,7 +10107,7 @@
       <c r="I206" s="9">
         <v>4261</v>
       </c>
-      <c r="J206" s="7">
+      <c r="J206" s="9">
         <v>260</v>
       </c>
       <c r="L206" s="7">
@@ -10121,7 +10142,7 @@
       <c r="I207" s="9">
         <v>4261</v>
       </c>
-      <c r="J207" s="7">
+      <c r="J207" s="9">
         <v>260</v>
       </c>
       <c r="L207" s="7">
@@ -10156,7 +10177,7 @@
       <c r="I208" s="9">
         <v>4261</v>
       </c>
-      <c r="J208" s="7">
+      <c r="J208" s="9">
         <v>260</v>
       </c>
       <c r="L208" s="7">
@@ -10191,7 +10212,7 @@
       <c r="I209" s="9">
         <v>4261</v>
       </c>
-      <c r="J209" s="7">
+      <c r="J209" s="9">
         <v>260</v>
       </c>
       <c r="L209" s="7">
@@ -10226,7 +10247,7 @@
       <c r="I210" s="9">
         <v>4261</v>
       </c>
-      <c r="J210" s="7">
+      <c r="J210" s="9">
         <v>260</v>
       </c>
       <c r="L210" s="7">
@@ -10261,7 +10282,7 @@
       <c r="I211" s="9">
         <v>4261</v>
       </c>
-      <c r="J211" s="7">
+      <c r="J211" s="9">
         <v>260</v>
       </c>
       <c r="L211" s="7">
@@ -10296,7 +10317,7 @@
       <c r="I212" s="9">
         <v>4261</v>
       </c>
-      <c r="J212" s="7">
+      <c r="J212" s="9">
         <v>260</v>
       </c>
       <c r="L212" s="7">
@@ -10331,7 +10352,7 @@
       <c r="I213" s="9">
         <v>4261</v>
       </c>
-      <c r="J213" s="7">
+      <c r="J213" s="9">
         <v>260</v>
       </c>
       <c r="L213" s="7">
@@ -10366,7 +10387,7 @@
       <c r="I214" s="9">
         <v>4261</v>
       </c>
-      <c r="J214" s="7">
+      <c r="J214" s="9">
         <v>260</v>
       </c>
       <c r="L214" s="7">
@@ -10401,7 +10422,7 @@
       <c r="I215" s="9">
         <v>4261</v>
       </c>
-      <c r="J215" s="7">
+      <c r="J215" s="9">
         <v>260</v>
       </c>
       <c r="L215" s="7">
@@ -10436,7 +10457,7 @@
       <c r="I216" s="9">
         <v>4261</v>
       </c>
-      <c r="J216" s="7">
+      <c r="J216" s="9">
         <v>260</v>
       </c>
       <c r="L216" s="7">
@@ -10471,7 +10492,7 @@
       <c r="I217" s="9">
         <v>4261</v>
       </c>
-      <c r="J217" s="7">
+      <c r="J217" s="9">
         <v>260</v>
       </c>
       <c r="L217" s="7">
@@ -10506,7 +10527,7 @@
       <c r="I218" s="9">
         <v>4261</v>
       </c>
-      <c r="J218" s="7">
+      <c r="J218" s="9">
         <v>260</v>
       </c>
       <c r="L218" s="7">
@@ -10541,7 +10562,7 @@
       <c r="I219" s="9">
         <v>4261</v>
       </c>
-      <c r="J219" s="7">
+      <c r="J219" s="9">
         <v>260</v>
       </c>
       <c r="L219" s="7">
@@ -10576,7 +10597,7 @@
       <c r="I220" s="9">
         <v>4261</v>
       </c>
-      <c r="J220" s="7">
+      <c r="J220" s="9">
         <v>260</v>
       </c>
       <c r="L220" s="7">
@@ -10611,7 +10632,7 @@
       <c r="I221" s="9">
         <v>4261</v>
       </c>
-      <c r="J221" s="7">
+      <c r="J221" s="9">
         <v>260</v>
       </c>
       <c r="L221" s="7">
@@ -10619,746 +10640,812 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="8">
+      <c r="B222" s="10">
         <v>45466.633750000001</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="9">
         <v>32</v>
       </c>
-      <c r="D222" s="7">
+      <c r="D222" s="9">
         <v>15</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="9">
         <v>17290</v>
       </c>
-      <c r="F222" s="7">
+      <c r="F222" s="9">
         <v>19</v>
       </c>
-      <c r="G222" s="7">
+      <c r="G222" s="9">
         <v>12</v>
       </c>
-      <c r="H222" s="7">
+      <c r="H222" s="9">
         <v>266</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222" s="9">
         <v>4261</v>
       </c>
-      <c r="J222" s="7">
+      <c r="J222" s="9">
         <v>260</v>
       </c>
+      <c r="L222" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B223" s="8">
+      <c r="B223" s="10">
         <v>45466.633888888886</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="9">
         <v>32</v>
       </c>
-      <c r="D223" s="7">
+      <c r="D223" s="9">
         <v>14</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="9">
         <v>15307</v>
       </c>
-      <c r="F223" s="7">
+      <c r="F223" s="9">
         <v>12</v>
       </c>
-      <c r="G223" s="7">
+      <c r="G223" s="9">
         <v>12</v>
       </c>
-      <c r="H223" s="7">
+      <c r="H223" s="9">
         <v>266</v>
       </c>
-      <c r="I223" s="7">
+      <c r="I223" s="9">
         <v>4261</v>
       </c>
-      <c r="J223" s="7">
+      <c r="J223" s="9">
         <v>260</v>
       </c>
+      <c r="L223" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B224" s="8">
+      <c r="B224" s="10">
         <v>45466.634097222224</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="9">
         <v>32</v>
       </c>
-      <c r="D224" s="7">
+      <c r="D224" s="9">
         <v>15</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="9">
         <v>17305</v>
       </c>
-      <c r="F224" s="7">
+      <c r="F224" s="9">
         <v>18</v>
       </c>
-      <c r="G224" s="7">
+      <c r="G224" s="9">
         <v>12</v>
       </c>
-      <c r="H224" s="7">
+      <c r="H224" s="9">
         <v>266</v>
       </c>
-      <c r="I224" s="7">
+      <c r="I224" s="9">
         <v>4261</v>
       </c>
-      <c r="J224" s="7">
+      <c r="J224" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="8" t="s">
+      <c r="L224" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="8">
+      <c r="B225" s="10">
         <v>45466.634189814817</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="9">
         <v>32</v>
       </c>
-      <c r="D225" s="7">
+      <c r="D225" s="9">
         <v>14</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="9">
         <v>15826</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" s="9">
         <v>8</v>
       </c>
-      <c r="G225" s="7">
+      <c r="G225" s="9">
         <v>12</v>
       </c>
-      <c r="H225" s="7">
+      <c r="H225" s="9">
         <v>266</v>
       </c>
-      <c r="I225" s="7">
+      <c r="I225" s="9">
         <v>4261</v>
       </c>
-      <c r="J225" s="7">
+      <c r="J225" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="8" t="s">
+      <c r="L225" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B226" s="8">
+      <c r="B226" s="10">
         <v>45466.634317129632</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="9">
         <v>32</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="9">
         <v>14</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="9">
         <v>13945</v>
       </c>
-      <c r="F226" s="7">
+      <c r="F226" s="9">
         <v>11</v>
       </c>
-      <c r="G226" s="7">
+      <c r="G226" s="9">
         <v>12</v>
       </c>
-      <c r="H226" s="7">
+      <c r="H226" s="9">
         <v>266</v>
       </c>
-      <c r="I226" s="7">
+      <c r="I226" s="9">
         <v>4261</v>
       </c>
-      <c r="J226" s="7">
+      <c r="J226" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="8" t="s">
+      <c r="L226" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B227" s="10">
         <v>45466.634618055556</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="9">
         <v>32</v>
       </c>
-      <c r="D227" s="7">
+      <c r="D227" s="9">
         <v>15</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="9">
         <v>17748</v>
       </c>
-      <c r="F227" s="7">
+      <c r="F227" s="9">
         <v>26</v>
       </c>
-      <c r="G227" s="7">
+      <c r="G227" s="9">
         <v>12</v>
       </c>
-      <c r="H227" s="7">
+      <c r="H227" s="9">
         <v>266</v>
       </c>
-      <c r="I227" s="7">
+      <c r="I227" s="9">
         <v>4261</v>
       </c>
-      <c r="J227" s="7">
+      <c r="J227" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="8" t="s">
+      <c r="L227" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B228" s="10">
         <v>45466.634791666664</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="9">
         <v>32</v>
       </c>
-      <c r="D228" s="7">
+      <c r="D228" s="9">
         <v>13</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="9">
         <v>14959</v>
       </c>
-      <c r="F228" s="7">
+      <c r="F228" s="9">
         <v>15</v>
       </c>
-      <c r="G228" s="7">
+      <c r="G228" s="9">
         <v>12</v>
       </c>
-      <c r="H228" s="7">
+      <c r="H228" s="9">
         <v>266</v>
       </c>
-      <c r="I228" s="7">
+      <c r="I228" s="9">
         <v>4261</v>
       </c>
-      <c r="J228" s="7">
+      <c r="J228" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="8" t="s">
+      <c r="L228" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229" s="10">
         <v>45466.63484953704</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="9">
         <v>32</v>
       </c>
-      <c r="D229" s="7">
+      <c r="D229" s="9">
         <v>12</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="9">
         <v>14481</v>
       </c>
-      <c r="F229" s="7">
+      <c r="F229" s="9">
         <v>5</v>
       </c>
-      <c r="G229" s="7">
+      <c r="G229" s="9">
         <v>12</v>
       </c>
-      <c r="H229" s="7">
+      <c r="H229" s="9">
         <v>266</v>
       </c>
-      <c r="I229" s="7">
+      <c r="I229" s="9">
         <v>4261</v>
       </c>
-      <c r="J229" s="7">
+      <c r="J229" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
-      <c r="A230" s="8" t="s">
+      <c r="L229" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230" s="10">
         <v>45466.634930555556</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="9">
         <v>32</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="9">
         <v>13</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="9">
         <v>14309</v>
       </c>
-      <c r="F230" s="7">
+      <c r="F230" s="9">
         <v>7</v>
       </c>
-      <c r="G230" s="7">
+      <c r="G230" s="9">
         <v>12</v>
       </c>
-      <c r="H230" s="7">
+      <c r="H230" s="9">
         <v>266</v>
       </c>
-      <c r="I230" s="7">
+      <c r="I230" s="9">
         <v>4261</v>
       </c>
-      <c r="J230" s="7">
+      <c r="J230" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
-      <c r="A231" s="8" t="s">
+      <c r="L230" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B231" s="10">
         <v>45466.635000000002</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="9">
         <v>32</v>
       </c>
-      <c r="D231" s="7">
+      <c r="D231" s="9">
         <v>13</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="9">
         <v>14393</v>
       </c>
-      <c r="F231" s="7">
+      <c r="F231" s="9">
         <v>6</v>
       </c>
-      <c r="G231" s="7">
+      <c r="G231" s="9">
         <v>12</v>
       </c>
-      <c r="H231" s="7">
+      <c r="H231" s="9">
         <v>266</v>
       </c>
-      <c r="I231" s="7">
+      <c r="I231" s="9">
         <v>4261</v>
       </c>
-      <c r="J231" s="7">
+      <c r="J231" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
-      <c r="A232" s="8" t="s">
+      <c r="L231" s="7">
         <v>10</v>
       </c>
-      <c r="B232" s="8">
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="10">
         <v>45466.635312500002</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="9">
         <v>33</v>
       </c>
-      <c r="D232" s="7">
+      <c r="D232" s="9">
         <v>16</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="9">
         <v>17028</v>
       </c>
-      <c r="F232" s="7">
+      <c r="F232" s="9">
         <v>27</v>
       </c>
-      <c r="G232" s="7">
+      <c r="G232" s="9">
         <v>12</v>
       </c>
-      <c r="H232" s="7">
+      <c r="H232" s="9">
         <v>266</v>
       </c>
-      <c r="I232" s="7">
+      <c r="I232" s="9">
         <v>4261</v>
       </c>
-      <c r="J232" s="7">
+      <c r="J232" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
-      <c r="A233" s="8" t="s">
+      <c r="L232" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B233" s="10">
         <v>45466.635439814818</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="9">
         <v>33</v>
       </c>
-      <c r="D233" s="7">
+      <c r="D233" s="9">
         <v>13</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="9">
         <v>16308</v>
       </c>
-      <c r="F233" s="7">
+      <c r="F233" s="9">
         <v>11</v>
       </c>
-      <c r="G233" s="7">
+      <c r="G233" s="9">
         <v>12</v>
       </c>
-      <c r="H233" s="7">
+      <c r="H233" s="9">
         <v>266</v>
       </c>
-      <c r="I233" s="7">
+      <c r="I233" s="9">
         <v>4261</v>
       </c>
-      <c r="J233" s="7">
+      <c r="J233" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
-      <c r="A234" s="8" t="s">
+      <c r="L233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="8">
+      <c r="B234" s="10">
         <v>45466.635578703703</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="9">
         <v>33</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="9">
         <v>13</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="9">
         <v>15647</v>
       </c>
-      <c r="F234" s="7">
+      <c r="F234" s="9">
         <v>12</v>
       </c>
-      <c r="G234" s="7">
+      <c r="G234" s="9">
         <v>12</v>
       </c>
-      <c r="H234" s="7">
+      <c r="H234" s="9">
         <v>266</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I234" s="9">
         <v>4261</v>
       </c>
-      <c r="J234" s="7">
+      <c r="J234" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
-      <c r="A235" s="8" t="s">
+      <c r="L234" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B235" s="10">
         <v>45466.635706018518</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="9">
         <v>33</v>
       </c>
-      <c r="D235" s="7">
+      <c r="D235" s="9">
         <v>13</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="9">
         <v>14528</v>
       </c>
-      <c r="F235" s="7">
+      <c r="F235" s="9">
         <v>11</v>
       </c>
-      <c r="G235" s="7">
+      <c r="G235" s="9">
         <v>12</v>
       </c>
-      <c r="H235" s="7">
+      <c r="H235" s="9">
         <v>266</v>
       </c>
-      <c r="I235" s="7">
+      <c r="I235" s="9">
         <v>4261</v>
       </c>
-      <c r="J235" s="7">
+      <c r="J235" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
-      <c r="A236" s="8" t="s">
+      <c r="L235" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="8">
+      <c r="B236" s="10">
         <v>45466.635775462964</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="9">
         <v>33</v>
       </c>
-      <c r="D236" s="7">
+      <c r="D236" s="9">
         <v>13</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="9">
         <v>16205</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F236" s="9">
         <v>6</v>
       </c>
-      <c r="G236" s="7">
+      <c r="G236" s="9">
         <v>12</v>
       </c>
-      <c r="H236" s="7">
+      <c r="H236" s="9">
         <v>266</v>
       </c>
-      <c r="I236" s="7">
+      <c r="I236" s="9">
         <v>4261</v>
       </c>
-      <c r="J236" s="7">
+      <c r="J236" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
-      <c r="A237" s="8" t="s">
+      <c r="L236" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B237" s="8">
+      <c r="B237" s="10">
         <v>45466.635937500003</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="9">
         <v>33</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D237" s="9">
         <v>15</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="9">
         <v>17425</v>
       </c>
-      <c r="F237" s="7">
+      <c r="F237" s="9">
         <v>14</v>
       </c>
-      <c r="G237" s="7">
+      <c r="G237" s="9">
         <v>12</v>
       </c>
-      <c r="H237" s="7">
+      <c r="H237" s="9">
         <v>266</v>
       </c>
-      <c r="I237" s="7">
+      <c r="I237" s="9">
         <v>4261</v>
       </c>
-      <c r="J237" s="7">
+      <c r="J237" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
-      <c r="A238" s="8" t="s">
+      <c r="L237" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B238" s="10">
         <v>45466.636331018519</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="9">
         <v>33</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D238" s="9">
         <v>15</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="9">
         <v>17212</v>
       </c>
-      <c r="F238" s="7">
+      <c r="F238" s="9">
         <v>34</v>
       </c>
-      <c r="G238" s="7">
+      <c r="G238" s="9">
         <v>12</v>
       </c>
-      <c r="H238" s="7">
+      <c r="H238" s="9">
         <v>266</v>
       </c>
-      <c r="I238" s="7">
+      <c r="I238" s="9">
         <v>4261</v>
       </c>
-      <c r="J238" s="7">
+      <c r="J238" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
-      <c r="A239" s="8" t="s">
+      <c r="L238" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B239" s="8">
+      <c r="B239" s="10">
         <v>45466.636817129627</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="9">
         <v>33</v>
       </c>
-      <c r="D239" s="7">
+      <c r="D239" s="9">
         <v>16</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="9">
         <v>18868</v>
       </c>
-      <c r="F239" s="7">
+      <c r="F239" s="9">
         <v>42</v>
       </c>
-      <c r="G239" s="7">
+      <c r="G239" s="9">
         <v>12</v>
       </c>
-      <c r="H239" s="7">
+      <c r="H239" s="9">
         <v>266</v>
       </c>
-      <c r="I239" s="7">
+      <c r="I239" s="9">
         <v>4261</v>
       </c>
-      <c r="J239" s="7">
+      <c r="J239" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
-      <c r="A240" s="8" t="s">
+      <c r="L239" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="8">
+      <c r="B240" s="10">
         <v>45466.636944444443</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="9">
         <v>33</v>
       </c>
-      <c r="D240" s="7">
+      <c r="D240" s="9">
         <v>14</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="9">
         <v>15911</v>
       </c>
-      <c r="F240" s="7">
+      <c r="F240" s="9">
         <v>11</v>
       </c>
-      <c r="G240" s="7">
+      <c r="G240" s="9">
         <v>12</v>
       </c>
-      <c r="H240" s="7">
+      <c r="H240" s="9">
         <v>266</v>
       </c>
-      <c r="I240" s="7">
+      <c r="I240" s="9">
         <v>4261</v>
       </c>
-      <c r="J240" s="7">
+      <c r="J240" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241" s="8" t="s">
+      <c r="L240" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="8">
+      <c r="B241" s="10">
         <v>45466.637187499997</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="9">
         <v>33</v>
       </c>
-      <c r="D241" s="7">
+      <c r="D241" s="9">
         <v>15</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="9">
         <v>15793</v>
       </c>
-      <c r="F241" s="7">
+      <c r="F241" s="9">
         <v>21</v>
       </c>
-      <c r="G241" s="7">
+      <c r="G241" s="9">
         <v>12</v>
       </c>
-      <c r="H241" s="7">
+      <c r="H241" s="9">
         <v>266</v>
       </c>
-      <c r="I241" s="7">
+      <c r="I241" s="9">
         <v>4261</v>
       </c>
-      <c r="J241" s="7">
+      <c r="J241" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242" s="8" t="s">
+      <c r="L241" s="7">
         <v>10</v>
       </c>
-      <c r="B242" s="8">
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="10">
         <v>45466.637233796297</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="9">
         <v>25</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="9">
         <v>19</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="9">
         <v>26725</v>
       </c>
-      <c r="F242" s="7">
+      <c r="F242" s="9">
         <v>4</v>
       </c>
-      <c r="G242" s="7">
+      <c r="G242" s="9">
         <v>12</v>
       </c>
-      <c r="H242" s="7">
+      <c r="H242" s="9">
         <v>266</v>
       </c>
-      <c r="I242" s="7">
+      <c r="I242" s="9">
         <v>4261</v>
       </c>
-      <c r="J242" s="7">
+      <c r="J242" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243" s="8" t="s">
+      <c r="L242" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B243" s="10">
         <v>45466.63726851852</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="9">
         <v>25</v>
       </c>
-      <c r="D243" s="7">
+      <c r="D243" s="9">
         <v>21</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="9">
         <v>40348</v>
       </c>
-      <c r="F243" s="7">
+      <c r="F243" s="9">
         <v>3</v>
       </c>
-      <c r="G243" s="7">
+      <c r="G243" s="9">
         <v>12</v>
       </c>
-      <c r="H243" s="7">
+      <c r="H243" s="9">
         <v>266</v>
       </c>
-      <c r="I243" s="7">
+      <c r="I243" s="9">
         <v>4261</v>
       </c>
-      <c r="J243" s="7">
+      <c r="J243" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="L243" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="B244" s="8"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:12">
       <c r="B245" s="8"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:12">
       <c r="B246" s="8"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:12">
       <c r="B247" s="8"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:12">
       <c r="B248" s="8"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:12">
       <c r="B249" s="8"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:12">
       <c r="B250" s="8"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:12">
       <c r="B251" s="8"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:12">
       <c r="B252" s="8"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:12">
       <c r="B253" s="8"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:12">
       <c r="B254" s="8"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:12">
       <c r="B255" s="8"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:12">
       <c r="B256" s="8"/>
     </row>
     <row r="257" spans="2:2">
@@ -11443,36 +11530,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8B2C1-76F9-4A22-BD1B-85D28A0AA152}">
-  <dimension ref="B3:W62"/>
+  <dimension ref="B3:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="18" customWidth="1"/>
+    <col min="3" max="12" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="3"/>
     <col min="16" max="16" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+    <row r="3" spans="2:20">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:20" ht="30">
       <c r="B4" s="21" t="s">
@@ -11511,15 +11598,9 @@
       <c r="M4" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>244</v>
-      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="18">
@@ -11569,12 +11650,6 @@
         <f>AVERAGE(C5:L5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="18">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="18">
@@ -11621,14 +11696,8 @@
         <v>0</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" ref="M6:M32" si="0">AVERAGE(C6:L6)</f>
+        <f t="shared" ref="M6:M28" si="0">AVERAGE(C6:L6)</f>
         <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -12122,7 +12191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:16">
       <c r="B17" s="18">
         <v>22</v>
       </c>
@@ -12171,7 +12240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:16">
       <c r="B18" s="18">
         <v>23</v>
       </c>
@@ -12220,7 +12289,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:16">
       <c r="B19" s="18">
         <v>24</v>
       </c>
@@ -12269,7 +12338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:16">
       <c r="B20" s="18">
         <v>25</v>
       </c>
@@ -12318,7 +12387,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:16">
       <c r="B21" s="18">
         <v>26</v>
       </c>
@@ -12367,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:16">
       <c r="B22" s="18">
         <v>27</v>
       </c>
@@ -12416,7 +12485,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:16">
       <c r="B23" s="18">
         <v>28</v>
       </c>
@@ -12465,7 +12534,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:16">
       <c r="B24" s="18">
         <v>29</v>
       </c>
@@ -12514,7 +12583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:16">
       <c r="B25" s="18">
         <v>30</v>
       </c>
@@ -12563,7 +12632,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:16">
       <c r="B26" s="18">
         <v>31</v>
       </c>
@@ -12612,1710 +12681,1317 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:16">
       <c r="B27" s="18">
         <v>32</v>
       </c>
       <c r="C27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L27" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B27,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="18">
         <v>33</v>
       </c>
       <c r="C28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L28" s="17">
         <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B28,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23">
-      <c r="B29" s="18">
-        <v>34</v>
-      </c>
-      <c r="C29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B29,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23">
-      <c r="B30" s="18">
-        <v>35</v>
-      </c>
-      <c r="C30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B30,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="30">
+      <c r="B30" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19">
+        <v>4</v>
+      </c>
+      <c r="G30" s="19">
+        <v>5</v>
+      </c>
+      <c r="H30" s="19">
+        <v>6</v>
+      </c>
+      <c r="I30" s="19">
+        <v>7</v>
+      </c>
+      <c r="J30" s="19">
+        <v>8</v>
+      </c>
+      <c r="K30" s="19">
+        <v>9</v>
+      </c>
+      <c r="L30" s="19">
+        <v>10</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="18">
-        <v>36</v>
-      </c>
-      <c r="C31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!C$4)</f>
+        <v>11373</v>
+      </c>
+      <c r="D31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!D$4)</f>
+        <v>8394</v>
+      </c>
+      <c r="E31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!E$4)</f>
+        <v>9690</v>
+      </c>
+      <c r="F31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!F$4)</f>
+        <v>9040</v>
+      </c>
+      <c r="G31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!G$4)</f>
+        <v>10005</v>
+      </c>
+      <c r="H31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!H$4)</f>
+        <v>8368</v>
+      </c>
+      <c r="I31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!I$4)</f>
+        <v>10421</v>
+      </c>
+      <c r="J31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!J$4)</f>
+        <v>10152</v>
+      </c>
+      <c r="K31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!K$4)</f>
+        <v>10625</v>
+      </c>
+      <c r="L31" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B31,exec!$L:$L,tabela!L$4)</f>
+        <v>11697</v>
+      </c>
+      <c r="M31" s="24">
+        <f>AVERAGE(C31:L31)</f>
+        <v>9976.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="18">
-        <v>37</v>
-      </c>
-      <c r="C32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="17">
-        <f>SUMIFS(exec!$F:$F,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="22"/>
-    </row>
-    <row r="34" spans="2:16" ht="45">
-      <c r="B34" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19">
-        <v>2</v>
-      </c>
-      <c r="E34" s="19">
-        <v>3</v>
-      </c>
-      <c r="F34" s="19">
-        <v>4</v>
-      </c>
-      <c r="G34" s="19">
-        <v>5</v>
-      </c>
-      <c r="H34" s="19">
-        <v>6</v>
-      </c>
-      <c r="I34" s="19">
-        <v>7</v>
-      </c>
-      <c r="J34" s="19">
-        <v>8</v>
-      </c>
-      <c r="K34" s="19">
-        <v>9</v>
-      </c>
-      <c r="L34" s="19">
-        <v>10</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="P34" s="21"/>
-    </row>
-    <row r="35" spans="2:16">
+        <v>11</v>
+      </c>
+      <c r="C32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!C$4)</f>
+        <v>11045</v>
+      </c>
+      <c r="D32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!D$4)</f>
+        <v>9075</v>
+      </c>
+      <c r="E32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!E$4)</f>
+        <v>12153</v>
+      </c>
+      <c r="F32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!F$4)</f>
+        <v>10521</v>
+      </c>
+      <c r="G32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!G$4)</f>
+        <v>8854</v>
+      </c>
+      <c r="H32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!H$4)</f>
+        <v>9458</v>
+      </c>
+      <c r="I32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!I$4)</f>
+        <v>11361</v>
+      </c>
+      <c r="J32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!J$4)</f>
+        <v>10629</v>
+      </c>
+      <c r="K32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!K$4)</f>
+        <v>10105</v>
+      </c>
+      <c r="L32" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B32,exec!$L:$L,tabela!L$4)</f>
+        <v>10587</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" ref="M32:M54" si="1">AVERAGE(C32:L32)</f>
+        <v>10378.799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="18">
+        <v>12</v>
+      </c>
+      <c r="C33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!C$4)</f>
+        <v>11395</v>
+      </c>
+      <c r="D33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!D$4)</f>
+        <v>12706</v>
+      </c>
+      <c r="E33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!E$4)</f>
+        <v>9367</v>
+      </c>
+      <c r="F33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!F$4)</f>
+        <v>10763</v>
+      </c>
+      <c r="G33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!G$4)</f>
+        <v>11212</v>
+      </c>
+      <c r="H33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!H$4)</f>
+        <v>9854</v>
+      </c>
+      <c r="I33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!I$4)</f>
+        <v>12350</v>
+      </c>
+      <c r="J33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!J$4)</f>
+        <v>11432</v>
+      </c>
+      <c r="K33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!K$4)</f>
+        <v>9855</v>
+      </c>
+      <c r="L33" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B33,exec!$L:$L,tabela!L$4)</f>
+        <v>11932</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="1"/>
+        <v>11086.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="18">
+        <v>13</v>
+      </c>
+      <c r="C34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!C$4)</f>
+        <v>11059</v>
+      </c>
+      <c r="D34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!D$4)</f>
+        <v>9279</v>
+      </c>
+      <c r="E34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!E$4)</f>
+        <v>9575</v>
+      </c>
+      <c r="F34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!F$4)</f>
+        <v>11873</v>
+      </c>
+      <c r="G34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!G$4)</f>
+        <v>9421</v>
+      </c>
+      <c r="H34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!H$4)</f>
+        <v>9821</v>
+      </c>
+      <c r="I34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!I$4)</f>
+        <v>11747</v>
+      </c>
+      <c r="J34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!J$4)</f>
+        <v>12300</v>
+      </c>
+      <c r="K34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!K$4)</f>
+        <v>10670</v>
+      </c>
+      <c r="L34" s="23">
+        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B34,exec!$L:$L,tabela!L$4)</f>
+        <v>10045</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="1"/>
+        <v>10579</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!C$4)</f>
-        <v>11373</v>
+        <v>9274</v>
       </c>
       <c r="D35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!D$4)</f>
-        <v>8394</v>
+        <v>14021</v>
       </c>
       <c r="E35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!E$4)</f>
-        <v>9690</v>
+        <v>10814</v>
       </c>
       <c r="F35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!F$4)</f>
-        <v>9040</v>
+        <v>14062</v>
       </c>
       <c r="G35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!G$4)</f>
-        <v>10005</v>
+        <v>11814</v>
       </c>
       <c r="H35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!H$4)</f>
-        <v>8368</v>
+        <v>11063</v>
       </c>
       <c r="I35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!I$4)</f>
-        <v>10421</v>
+        <v>11309</v>
       </c>
       <c r="J35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!J$4)</f>
-        <v>10152</v>
+        <v>13356</v>
       </c>
       <c r="K35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!K$4)</f>
-        <v>10625</v>
+        <v>12220</v>
       </c>
       <c r="L35" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B35,exec!$L:$L,tabela!L$4)</f>
-        <v>11697</v>
+        <v>11493</v>
       </c>
       <c r="M35" s="24">
-        <f>AVERAGE(C35:L35)</f>
-        <v>9976.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16">
+        <f t="shared" si="1"/>
+        <v>11942.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!C$4)</f>
-        <v>11045</v>
+        <v>13535</v>
       </c>
       <c r="D36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!D$4)</f>
-        <v>9075</v>
+        <v>8200</v>
       </c>
       <c r="E36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!E$4)</f>
-        <v>12153</v>
+        <v>13383</v>
       </c>
       <c r="F36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!F$4)</f>
-        <v>10521</v>
+        <v>13756</v>
       </c>
       <c r="G36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!G$4)</f>
-        <v>8854</v>
+        <v>11483</v>
       </c>
       <c r="H36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!H$4)</f>
-        <v>9458</v>
+        <v>14188</v>
       </c>
       <c r="I36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!I$4)</f>
-        <v>11361</v>
+        <v>13611</v>
       </c>
       <c r="J36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!J$4)</f>
-        <v>10629</v>
+        <v>11064</v>
       </c>
       <c r="K36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!K$4)</f>
-        <v>10105</v>
+        <v>12690</v>
       </c>
       <c r="L36" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B36,exec!$L:$L,tabela!L$4)</f>
-        <v>10587</v>
+        <v>10956</v>
       </c>
       <c r="M36" s="24">
-        <f t="shared" ref="M36:M62" si="1">AVERAGE(C36:L36)</f>
-        <v>10378.799999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
+        <f t="shared" si="1"/>
+        <v>12286.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!C$4)</f>
-        <v>11395</v>
+        <v>12160</v>
       </c>
       <c r="D37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!D$4)</f>
-        <v>12706</v>
+        <v>13591</v>
       </c>
       <c r="E37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!E$4)</f>
-        <v>9367</v>
+        <v>12249</v>
       </c>
       <c r="F37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!F$4)</f>
-        <v>10763</v>
+        <v>13478</v>
       </c>
       <c r="G37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!G$4)</f>
-        <v>11212</v>
+        <v>11905</v>
       </c>
       <c r="H37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!H$4)</f>
-        <v>9854</v>
+        <v>12510</v>
       </c>
       <c r="I37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!I$4)</f>
-        <v>12350</v>
+        <v>12011</v>
       </c>
       <c r="J37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!J$4)</f>
-        <v>11432</v>
+        <v>12417</v>
       </c>
       <c r="K37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!K$4)</f>
-        <v>9855</v>
+        <v>12924</v>
       </c>
       <c r="L37" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B37,exec!$L:$L,tabela!L$4)</f>
-        <v>11932</v>
+        <v>11580</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="1"/>
-        <v>11086.6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16">
+        <v>12482.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!C$4)</f>
-        <v>11059</v>
+        <v>13424</v>
       </c>
       <c r="D38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!D$4)</f>
-        <v>9279</v>
+        <v>12573</v>
       </c>
       <c r="E38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!E$4)</f>
-        <v>9575</v>
+        <v>14009</v>
       </c>
       <c r="F38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!F$4)</f>
-        <v>11873</v>
+        <v>12169</v>
       </c>
       <c r="G38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!G$4)</f>
-        <v>9421</v>
+        <v>14769</v>
       </c>
       <c r="H38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!H$4)</f>
-        <v>9821</v>
+        <v>13004</v>
       </c>
       <c r="I38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!I$4)</f>
-        <v>11747</v>
+        <v>16050</v>
       </c>
       <c r="J38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!J$4)</f>
-        <v>12300</v>
+        <v>12196</v>
       </c>
       <c r="K38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!K$4)</f>
-        <v>10670</v>
+        <v>12516</v>
       </c>
       <c r="L38" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B38,exec!$L:$L,tabela!L$4)</f>
-        <v>10045</v>
+        <v>11776</v>
       </c>
       <c r="M38" s="24">
         <f t="shared" si="1"/>
-        <v>10579</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16">
+        <v>13248.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!C$4)</f>
-        <v>9274</v>
+        <v>14208</v>
       </c>
       <c r="D39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!D$4)</f>
-        <v>14021</v>
+        <v>11297</v>
       </c>
       <c r="E39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!E$4)</f>
-        <v>10814</v>
+        <v>15407</v>
       </c>
       <c r="F39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!F$4)</f>
-        <v>14062</v>
+        <v>11440</v>
       </c>
       <c r="G39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!G$4)</f>
-        <v>11814</v>
+        <v>14408</v>
       </c>
       <c r="H39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!H$4)</f>
-        <v>11063</v>
+        <v>10804</v>
       </c>
       <c r="I39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!I$4)</f>
-        <v>11309</v>
+        <v>15238</v>
       </c>
       <c r="J39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!J$4)</f>
-        <v>13356</v>
+        <v>16301</v>
       </c>
       <c r="K39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!K$4)</f>
-        <v>12220</v>
+        <v>13775</v>
       </c>
       <c r="L39" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B39,exec!$L:$L,tabela!L$4)</f>
-        <v>11493</v>
+        <v>13227</v>
       </c>
       <c r="M39" s="24">
         <f t="shared" si="1"/>
-        <v>11942.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16">
+        <v>13610.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!C$4)</f>
-        <v>13535</v>
+        <v>12453</v>
       </c>
       <c r="D40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!D$4)</f>
-        <v>8200</v>
+        <v>14352</v>
       </c>
       <c r="E40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!E$4)</f>
-        <v>13383</v>
+        <v>13737</v>
       </c>
       <c r="F40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!F$4)</f>
-        <v>13756</v>
+        <v>13724</v>
       </c>
       <c r="G40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!G$4)</f>
-        <v>11483</v>
+        <v>13662</v>
       </c>
       <c r="H40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!H$4)</f>
-        <v>14188</v>
+        <v>12215</v>
       </c>
       <c r="I40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!I$4)</f>
-        <v>13611</v>
+        <v>12236</v>
       </c>
       <c r="J40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!J$4)</f>
-        <v>11064</v>
+        <v>14697</v>
       </c>
       <c r="K40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!K$4)</f>
-        <v>12690</v>
+        <v>11784</v>
       </c>
       <c r="L40" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B40,exec!$L:$L,tabela!L$4)</f>
-        <v>10956</v>
+        <v>13330</v>
       </c>
       <c r="M40" s="24">
         <f t="shared" si="1"/>
-        <v>12286.6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16">
+        <v>13219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!C$4)</f>
-        <v>12160</v>
+        <v>14831</v>
       </c>
       <c r="D41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!D$4)</f>
-        <v>13591</v>
+        <v>14268</v>
       </c>
       <c r="E41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!E$4)</f>
-        <v>12249</v>
+        <v>15035</v>
       </c>
       <c r="F41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!F$4)</f>
-        <v>13478</v>
+        <v>11828</v>
       </c>
       <c r="G41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!G$4)</f>
-        <v>11905</v>
+        <v>13712</v>
       </c>
       <c r="H41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!H$4)</f>
-        <v>12510</v>
+        <v>13552</v>
       </c>
       <c r="I41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!I$4)</f>
-        <v>12011</v>
+        <v>14871</v>
       </c>
       <c r="J41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!J$4)</f>
-        <v>12417</v>
+        <v>13827</v>
       </c>
       <c r="K41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!K$4)</f>
-        <v>12924</v>
+        <v>13986</v>
       </c>
       <c r="L41" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B41,exec!$L:$L,tabela!L$4)</f>
-        <v>11580</v>
+        <v>15356</v>
       </c>
       <c r="M41" s="24">
         <f t="shared" si="1"/>
-        <v>12482.5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16">
+        <v>14126.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!C$4)</f>
-        <v>13424</v>
+        <v>11951</v>
       </c>
       <c r="D42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!D$4)</f>
-        <v>12573</v>
+        <v>16218</v>
       </c>
       <c r="E42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!E$4)</f>
-        <v>14009</v>
+        <v>13216</v>
       </c>
       <c r="F42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!F$4)</f>
-        <v>12169</v>
+        <v>13626</v>
       </c>
       <c r="G42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!G$4)</f>
-        <v>14769</v>
+        <v>15327</v>
       </c>
       <c r="H42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!H$4)</f>
-        <v>13004</v>
+        <v>14926</v>
       </c>
       <c r="I42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!I$4)</f>
-        <v>16050</v>
+        <v>13176</v>
       </c>
       <c r="J42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!J$4)</f>
-        <v>12196</v>
+        <v>14002</v>
       </c>
       <c r="K42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!K$4)</f>
-        <v>12516</v>
+        <v>13501</v>
       </c>
       <c r="L42" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B42,exec!$L:$L,tabela!L$4)</f>
-        <v>11776</v>
+        <v>13957</v>
       </c>
       <c r="M42" s="24">
         <f t="shared" si="1"/>
-        <v>13248.6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!C$4)</f>
-        <v>14208</v>
+        <v>14270</v>
       </c>
       <c r="D43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!D$4)</f>
-        <v>11297</v>
+        <v>13253</v>
       </c>
       <c r="E43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!E$4)</f>
-        <v>15407</v>
+        <v>13694</v>
       </c>
       <c r="F43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!F$4)</f>
-        <v>11440</v>
+        <v>15215</v>
       </c>
       <c r="G43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!G$4)</f>
-        <v>14408</v>
+        <v>13076</v>
       </c>
       <c r="H43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!H$4)</f>
-        <v>10804</v>
+        <v>11853</v>
       </c>
       <c r="I43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!I$4)</f>
-        <v>15238</v>
+        <v>14362</v>
       </c>
       <c r="J43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!J$4)</f>
-        <v>16301</v>
+        <v>14574</v>
       </c>
       <c r="K43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!K$4)</f>
-        <v>13775</v>
+        <v>16733</v>
       </c>
       <c r="L43" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B43,exec!$L:$L,tabela!L$4)</f>
-        <v>13227</v>
+        <v>12014</v>
       </c>
       <c r="M43" s="24">
         <f t="shared" si="1"/>
-        <v>13610.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16">
+        <v>13904.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!C$4)</f>
-        <v>12453</v>
+        <v>14160</v>
       </c>
       <c r="D44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!D$4)</f>
-        <v>14352</v>
+        <v>14795</v>
       </c>
       <c r="E44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!E$4)</f>
-        <v>13737</v>
+        <v>15002</v>
       </c>
       <c r="F44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!F$4)</f>
-        <v>13724</v>
+        <v>13760</v>
       </c>
       <c r="G44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!G$4)</f>
-        <v>13662</v>
+        <v>13577</v>
       </c>
       <c r="H44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!H$4)</f>
-        <v>12215</v>
+        <v>16308</v>
       </c>
       <c r="I44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!I$4)</f>
-        <v>12236</v>
+        <v>14030</v>
       </c>
       <c r="J44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!J$4)</f>
-        <v>14697</v>
+        <v>14619</v>
       </c>
       <c r="K44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!K$4)</f>
-        <v>11784</v>
+        <v>15402</v>
       </c>
       <c r="L44" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B44,exec!$L:$L,tabela!L$4)</f>
-        <v>13330</v>
+        <v>14902</v>
       </c>
       <c r="M44" s="24">
         <f t="shared" si="1"/>
-        <v>13219</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16">
+        <v>14655.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!C$4)</f>
-        <v>14831</v>
+        <v>14003</v>
       </c>
       <c r="D45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!D$4)</f>
-        <v>14268</v>
+        <v>13505</v>
       </c>
       <c r="E45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!E$4)</f>
-        <v>15035</v>
+        <v>14812</v>
       </c>
       <c r="F45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!F$4)</f>
-        <v>11828</v>
+        <v>15435</v>
       </c>
       <c r="G45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!G$4)</f>
-        <v>13712</v>
+        <v>14425</v>
       </c>
       <c r="H45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!H$4)</f>
-        <v>13552</v>
+        <v>15916</v>
       </c>
       <c r="I45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!I$4)</f>
-        <v>14871</v>
+        <v>15243</v>
       </c>
       <c r="J45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!J$4)</f>
-        <v>13827</v>
+        <v>14105</v>
       </c>
       <c r="K45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!K$4)</f>
-        <v>13986</v>
+        <v>15037</v>
       </c>
       <c r="L45" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B45,exec!$L:$L,tabela!L$4)</f>
-        <v>15356</v>
+        <v>14274</v>
       </c>
       <c r="M45" s="24">
         <f t="shared" si="1"/>
-        <v>14126.6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16">
+        <v>14675.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!C$4)</f>
-        <v>11951</v>
+        <v>15837</v>
       </c>
       <c r="D46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!D$4)</f>
-        <v>16218</v>
+        <v>14717</v>
       </c>
       <c r="E46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!E$4)</f>
-        <v>13216</v>
+        <v>13223</v>
       </c>
       <c r="F46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!F$4)</f>
-        <v>13626</v>
+        <v>13437</v>
       </c>
       <c r="G46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!G$4)</f>
-        <v>15327</v>
+        <v>15213</v>
       </c>
       <c r="H46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!H$4)</f>
-        <v>14926</v>
+        <v>15876</v>
       </c>
       <c r="I46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!I$4)</f>
-        <v>13176</v>
+        <v>16253</v>
       </c>
       <c r="J46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!J$4)</f>
-        <v>14002</v>
+        <v>17029</v>
       </c>
       <c r="K46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!K$4)</f>
-        <v>13501</v>
+        <v>14090</v>
       </c>
       <c r="L46" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B46,exec!$L:$L,tabela!L$4)</f>
-        <v>13957</v>
+        <v>14621</v>
       </c>
       <c r="M46" s="24">
         <f t="shared" si="1"/>
-        <v>13990</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16">
+        <v>15029.6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="18">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!C$4)</f>
-        <v>14270</v>
+        <v>15217</v>
       </c>
       <c r="D47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!D$4)</f>
-        <v>13253</v>
+        <v>14726</v>
       </c>
       <c r="E47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!E$4)</f>
-        <v>13694</v>
+        <v>16423</v>
       </c>
       <c r="F47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!F$4)</f>
-        <v>15215</v>
+        <v>17017</v>
       </c>
       <c r="G47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!G$4)</f>
-        <v>13076</v>
+        <v>13700</v>
       </c>
       <c r="H47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!H$4)</f>
-        <v>11853</v>
+        <v>14073</v>
       </c>
       <c r="I47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!I$4)</f>
-        <v>14362</v>
+        <v>15667</v>
       </c>
       <c r="J47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!J$4)</f>
-        <v>14574</v>
+        <v>12722</v>
       </c>
       <c r="K47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!K$4)</f>
-        <v>16733</v>
+        <v>15887</v>
       </c>
       <c r="L47" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B47,exec!$L:$L,tabela!L$4)</f>
-        <v>12014</v>
+        <v>14232</v>
       </c>
       <c r="M47" s="24">
         <f t="shared" si="1"/>
-        <v>13904.4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16">
+        <v>14966.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!C$4)</f>
-        <v>14160</v>
+        <v>16934</v>
       </c>
       <c r="D48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!D$4)</f>
-        <v>14795</v>
+        <v>15958</v>
       </c>
       <c r="E48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!E$4)</f>
-        <v>15002</v>
+        <v>17389</v>
       </c>
       <c r="F48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!F$4)</f>
-        <v>13760</v>
+        <v>14517</v>
       </c>
       <c r="G48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!G$4)</f>
-        <v>13577</v>
+        <v>14770</v>
       </c>
       <c r="H48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!H$4)</f>
-        <v>16308</v>
+        <v>14705</v>
       </c>
       <c r="I48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!I$4)</f>
-        <v>14030</v>
+        <v>16279</v>
       </c>
       <c r="J48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!J$4)</f>
-        <v>14619</v>
+        <v>15783</v>
       </c>
       <c r="K48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!K$4)</f>
-        <v>15402</v>
+        <v>13216</v>
       </c>
       <c r="L48" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B48,exec!$L:$L,tabela!L$4)</f>
-        <v>14902</v>
+        <v>16202</v>
       </c>
       <c r="M48" s="24">
         <f t="shared" si="1"/>
-        <v>14655.5</v>
+        <v>15575.3</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!C$4)</f>
-        <v>14003</v>
+        <v>16909</v>
       </c>
       <c r="D49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!D$4)</f>
-        <v>13505</v>
+        <v>15472</v>
       </c>
       <c r="E49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!E$4)</f>
-        <v>14812</v>
+        <v>15263</v>
       </c>
       <c r="F49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!F$4)</f>
-        <v>15435</v>
+        <v>14260</v>
       </c>
       <c r="G49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!G$4)</f>
-        <v>14425</v>
+        <v>13573</v>
       </c>
       <c r="H49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!H$4)</f>
-        <v>15916</v>
+        <v>14049</v>
       </c>
       <c r="I49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!I$4)</f>
-        <v>15243</v>
+        <v>13686</v>
       </c>
       <c r="J49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!J$4)</f>
-        <v>14105</v>
+        <v>17431</v>
       </c>
       <c r="K49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!K$4)</f>
-        <v>15037</v>
+        <v>15361</v>
       </c>
       <c r="L49" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B49,exec!$L:$L,tabela!L$4)</f>
-        <v>14274</v>
+        <v>15299</v>
       </c>
       <c r="M49" s="24">
         <f t="shared" si="1"/>
-        <v>14675.5</v>
+        <v>15130.3</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!C$4)</f>
-        <v>15837</v>
+        <v>15956</v>
       </c>
       <c r="D50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!D$4)</f>
-        <v>14717</v>
+        <v>16563</v>
       </c>
       <c r="E50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!E$4)</f>
-        <v>13223</v>
+        <v>16741</v>
       </c>
       <c r="F50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!F$4)</f>
-        <v>13437</v>
+        <v>17101</v>
       </c>
       <c r="G50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!G$4)</f>
-        <v>15213</v>
+        <v>16104</v>
       </c>
       <c r="H50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!H$4)</f>
-        <v>15876</v>
+        <v>14728</v>
       </c>
       <c r="I50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!I$4)</f>
-        <v>16253</v>
+        <v>14132</v>
       </c>
       <c r="J50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!J$4)</f>
-        <v>17029</v>
+        <v>17076</v>
       </c>
       <c r="K50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!K$4)</f>
-        <v>14090</v>
+        <v>15299</v>
       </c>
       <c r="L50" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B50,exec!$L:$L,tabela!L$4)</f>
-        <v>14621</v>
+        <v>15806</v>
       </c>
       <c r="M50" s="24">
         <f t="shared" si="1"/>
-        <v>15029.6</v>
+        <v>15950.6</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" s="18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!C$4)</f>
-        <v>15217</v>
+        <v>17738</v>
       </c>
       <c r="D51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!D$4)</f>
-        <v>14726</v>
+        <v>17273</v>
       </c>
       <c r="E51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!E$4)</f>
-        <v>16423</v>
+        <v>14179</v>
       </c>
       <c r="F51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!F$4)</f>
-        <v>17017</v>
+        <v>16732</v>
       </c>
       <c r="G51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!G$4)</f>
-        <v>13700</v>
+        <v>16281</v>
       </c>
       <c r="H51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!H$4)</f>
-        <v>14073</v>
+        <v>14321</v>
       </c>
       <c r="I51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!I$4)</f>
-        <v>15667</v>
+        <v>16194</v>
       </c>
       <c r="J51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!J$4)</f>
-        <v>12722</v>
+        <v>18770</v>
       </c>
       <c r="K51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!K$4)</f>
-        <v>15887</v>
+        <v>14250</v>
       </c>
       <c r="L51" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B51,exec!$L:$L,tabela!L$4)</f>
-        <v>14232</v>
+        <v>15564</v>
       </c>
       <c r="M51" s="24">
         <f t="shared" si="1"/>
-        <v>14966.4</v>
+        <v>16130.2</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" s="18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!C$4)</f>
-        <v>16934</v>
+        <v>16662</v>
       </c>
       <c r="D52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!D$4)</f>
-        <v>15958</v>
+        <v>14927</v>
       </c>
       <c r="E52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!E$4)</f>
-        <v>17389</v>
+        <v>16779</v>
       </c>
       <c r="F52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!F$4)</f>
-        <v>14517</v>
+        <v>14237</v>
       </c>
       <c r="G52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!G$4)</f>
-        <v>14770</v>
+        <v>15641</v>
       </c>
       <c r="H52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!H$4)</f>
-        <v>14705</v>
+        <v>14458</v>
       </c>
       <c r="I52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!I$4)</f>
-        <v>16279</v>
+        <v>17013</v>
       </c>
       <c r="J52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!J$4)</f>
-        <v>15783</v>
+        <v>18222</v>
       </c>
       <c r="K52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!K$4)</f>
-        <v>13216</v>
+        <v>14349</v>
       </c>
       <c r="L52" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B52,exec!$L:$L,tabela!L$4)</f>
-        <v>16202</v>
+        <v>16191</v>
       </c>
       <c r="M52" s="24">
         <f t="shared" si="1"/>
-        <v>15575.3</v>
+        <v>15847.9</v>
       </c>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" s="18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!C$4)</f>
-        <v>16909</v>
+        <v>17290</v>
       </c>
       <c r="D53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!D$4)</f>
-        <v>15472</v>
+        <v>15307</v>
       </c>
       <c r="E53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!E$4)</f>
-        <v>15263</v>
+        <v>17305</v>
       </c>
       <c r="F53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!F$4)</f>
-        <v>14260</v>
+        <v>15826</v>
       </c>
       <c r="G53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!G$4)</f>
-        <v>13573</v>
+        <v>13945</v>
       </c>
       <c r="H53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!H$4)</f>
-        <v>14049</v>
+        <v>17748</v>
       </c>
       <c r="I53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!I$4)</f>
-        <v>13686</v>
+        <v>14959</v>
       </c>
       <c r="J53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!J$4)</f>
-        <v>17431</v>
+        <v>14481</v>
       </c>
       <c r="K53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!K$4)</f>
-        <v>15361</v>
+        <v>14309</v>
       </c>
       <c r="L53" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B53,exec!$L:$L,tabela!L$4)</f>
-        <v>15299</v>
+        <v>14393</v>
       </c>
       <c r="M53" s="24">
         <f t="shared" si="1"/>
-        <v>15130.3</v>
+        <v>15556.3</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" s="18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!C$4)</f>
-        <v>15956</v>
+        <v>17028</v>
       </c>
       <c r="D54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!D$4)</f>
-        <v>16563</v>
+        <v>16308</v>
       </c>
       <c r="E54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!E$4)</f>
-        <v>16741</v>
+        <v>15647</v>
       </c>
       <c r="F54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!F$4)</f>
-        <v>17101</v>
+        <v>14528</v>
       </c>
       <c r="G54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!G$4)</f>
-        <v>16104</v>
+        <v>16205</v>
       </c>
       <c r="H54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!H$4)</f>
-        <v>14728</v>
+        <v>17425</v>
       </c>
       <c r="I54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!I$4)</f>
-        <v>14132</v>
+        <v>17212</v>
       </c>
       <c r="J54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!J$4)</f>
-        <v>17076</v>
+        <v>18868</v>
       </c>
       <c r="K54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!K$4)</f>
-        <v>15299</v>
+        <v>15911</v>
       </c>
       <c r="L54" s="23">
         <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B54,exec!$L:$L,tabela!L$4)</f>
-        <v>15806</v>
+        <v>15793</v>
       </c>
       <c r="M54" s="24">
         <f t="shared" si="1"/>
-        <v>15950.6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="18">
-        <v>30</v>
-      </c>
-      <c r="C55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!C$4)</f>
-        <v>17738</v>
-      </c>
-      <c r="D55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!D$4)</f>
-        <v>17273</v>
-      </c>
-      <c r="E55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!E$4)</f>
-        <v>14179</v>
-      </c>
-      <c r="F55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!F$4)</f>
-        <v>16732</v>
-      </c>
-      <c r="G55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!G$4)</f>
-        <v>16281</v>
-      </c>
-      <c r="H55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!H$4)</f>
-        <v>14321</v>
-      </c>
-      <c r="I55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!I$4)</f>
-        <v>16194</v>
-      </c>
-      <c r="J55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!J$4)</f>
-        <v>18770</v>
-      </c>
-      <c r="K55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!K$4)</f>
-        <v>14250</v>
-      </c>
-      <c r="L55" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B55,exec!$L:$L,tabela!L$4)</f>
-        <v>15564</v>
-      </c>
-      <c r="M55" s="24">
-        <f t="shared" si="1"/>
-        <v>16130.2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="18">
-        <v>31</v>
-      </c>
-      <c r="C56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!C$4)</f>
-        <v>16662</v>
-      </c>
-      <c r="D56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!D$4)</f>
-        <v>14927</v>
-      </c>
-      <c r="E56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!E$4)</f>
-        <v>16779</v>
-      </c>
-      <c r="F56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!F$4)</f>
-        <v>14237</v>
-      </c>
-      <c r="G56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!G$4)</f>
-        <v>15641</v>
-      </c>
-      <c r="H56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!H$4)</f>
-        <v>14458</v>
-      </c>
-      <c r="I56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!I$4)</f>
-        <v>17013</v>
-      </c>
-      <c r="J56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!J$4)</f>
-        <v>18222</v>
-      </c>
-      <c r="K56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!K$4)</f>
-        <v>14349</v>
-      </c>
-      <c r="L56" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B56,exec!$L:$L,tabela!L$4)</f>
-        <v>16191</v>
-      </c>
-      <c r="M56" s="24">
-        <f t="shared" si="1"/>
-        <v>15847.9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="18">
-        <v>32</v>
-      </c>
-      <c r="C57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B57,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="18">
-        <v>33</v>
-      </c>
-      <c r="C58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B58,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="18">
-        <v>34</v>
-      </c>
-      <c r="C59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B59,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="18">
-        <v>35</v>
-      </c>
-      <c r="C60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B60,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="18">
-        <v>36</v>
-      </c>
-      <c r="C61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B61,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="18">
-        <v>37</v>
-      </c>
-      <c r="C62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!D$4)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!E$4)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!F$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!I$4)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!J$4)</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!K$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="23">
-        <f>SUMIFS(exec!$E:$E,exec!$C:$C,tabela!$B62,exec!$L:$L,tabela!L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16492.5</v>
       </c>
     </row>
   </sheetData>
